--- a/BlankJournal/Data/Копия ПЕРЕЧЕНЬ ТБП 23 09 15.xlsx
+++ b/BlankJournal/Data/Копия ПЕРЕЧЕНЬ ТБП 23 09 15.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\BlankJournal\BlankJournal\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="19320" windowHeight="11565" tabRatio="753" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="19320" windowHeight="11565" tabRatio="753" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="титул" sheetId="13" r:id="rId1"/>
@@ -37,12 +42,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="12">'8. КРУ 6кВ'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.ОРУ110'!$A$1:$C$76</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="1207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="1209">
   <si>
     <t>Вывод передатчика АКА-16 кГц ВЛ-500 кВ Емелино.</t>
   </si>
@@ -3035,15 +3040,6 @@
     <t>Вывод АОПО (МКПА-2) ВЛ 220 Ижевск-1,2 (для проведения ТО)</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -3675,6 +3671,21 @@
   </si>
   <si>
     <t>АКА-116 кГц ВЛ-500 кВ Вятка</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
   </si>
 </sst>
 </file>
@@ -3890,6 +3901,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3937,7 +3951,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3972,7 +3986,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6621,7 +6635,7 @@
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0"/>
-  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;RСтраница &amp;P</oddHeader>
   </headerFooter>
@@ -6632,8 +6646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E487"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D418" sqref="D418"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6646,20 +6660,20 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="B1" s="2">
-        <v>-1</v>
+        <v>993</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>993</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E1" s="1" t="str">
-        <f>CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A1,"',",B1,",'",C1,"','",D1,"'")</f>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '-',-1,'ОБП','Объект 0'</v>
+        <f>CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A1,"','",B1,"','",C1,"','",D1,"'")</f>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '-','-','ОБП','Объект 0'</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6673,11 +6687,11 @@
         <v>772</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f t="shared" ref="E2:E65" si="0">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A2,"',",B2,",'",C2,"','",D2,"'")</f>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-01',1,'Ввод в работу ГГ-1','ГГ-1'</v>
+        <f t="shared" ref="E2:E65" si="0">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A2,"','",B2,"','",C2,"','",D2,"'")</f>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-01','1','Ввод в работу ГГ-1','ГГ-1'</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6691,11 +6705,11 @@
         <v>773</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="E3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-02',1,'Ввод в работу ГГ-2','ГГ-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-02','1','Ввод в работу ГГ-2','ГГ-2'</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6709,11 +6723,11 @@
         <v>774</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-03',1,'Ввод в работу ГГ-3','ГГ-3'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-03','1','Ввод в работу ГГ-3','ГГ-3'</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6727,11 +6741,11 @@
         <v>775</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-04',1,'Ввод в работу ГГ-4','ГГ-4'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-04','1','Ввод в работу ГГ-4','ГГ-4'</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6745,11 +6759,11 @@
         <v>776</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-05',1,'Ввод в работу ГГ-5','ГГ-5'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-05','1','Ввод в работу ГГ-5','ГГ-5'</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6763,11 +6777,11 @@
         <v>777</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-06',1,'Ввод в работу ГГ-6','ГГ-6'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-06','1','Ввод в работу ГГ-6','ГГ-6'</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6781,11 +6795,11 @@
         <v>778</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-07',1,'Ввод в работу ГГ-7','ГГ-7'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-07','1','Ввод в работу ГГ-7','ГГ-7'</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -6799,11 +6813,11 @@
         <v>779</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-08',1,'Ввод в работу ГГ-8','ГГ-8'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-08','1','Ввод в работу ГГ-8','ГГ-8'</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6817,11 +6831,11 @@
         <v>780</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-09',1,'Ввод в работу ГГ-9','ГГ-9'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-09','1','Ввод в работу ГГ-9','ГГ-9'</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -6835,11 +6849,11 @@
         <v>781</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="E11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-10',1,'Ввод в работу ГГ-10','ГГ-10'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-10','1','Ввод в работу ГГ-10','ГГ-10'</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -6853,11 +6867,11 @@
         <v>782</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-11',1,'Вывод в ремонт ГГ-1','ГГ-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-11','1','Вывод в ремонт ГГ-1','ГГ-1'</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6871,11 +6885,11 @@
         <v>783</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="E13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-12',1,'Вывод в ремонт ГГ-2','ГГ-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-12','1','Вывод в ремонт ГГ-2','ГГ-2'</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6889,11 +6903,11 @@
         <v>784</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-13',1,'Вывод в ремонт ГГ-3','ГГ-3'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-13','1','Вывод в ремонт ГГ-3','ГГ-3'</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -6907,11 +6921,11 @@
         <v>785</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-14',1,'Вывод в ремонт ГГ-4','ГГ-4'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-14','1','Вывод в ремонт ГГ-4','ГГ-4'</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6925,11 +6939,11 @@
         <v>786</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-15',1,'Вывод в ремонт ГГ-5','ГГ-5'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-15','1','Вывод в ремонт ГГ-5','ГГ-5'</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6943,11 +6957,11 @@
         <v>787</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-16',1,'Вывод в ремонт ГГ-6','ГГ-6'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-16','1','Вывод в ремонт ГГ-6','ГГ-6'</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6961,11 +6975,11 @@
         <v>788</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-17',1,'Вывод в ремонт ГГ-7','ГГ-7'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-17','1','Вывод в ремонт ГГ-7','ГГ-7'</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -6979,11 +6993,11 @@
         <v>789</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-18',1,'Вывод в ремонт ГГ-8','ГГ-8'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-18','1','Вывод в ремонт ГГ-8','ГГ-8'</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -6997,11 +7011,11 @@
         <v>790</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-19',1,'Вывод в ремонт ГГ-9','ГГ-9'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-19','1','Вывод в ремонт ГГ-9','ГГ-9'</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7015,11 +7029,11 @@
         <v>791</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-20',1,'Вывод в ремонт ГГ-10','ГГ-10'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '1-20','1','Вывод в ремонт ГГ-10','ГГ-10'</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -7033,11 +7047,11 @@
         <v>4</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-01',2,'Вывод в ремонт 1СШ-110 кВ с переводом всех присоединений на 2СШ-110 кв.','1СШ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-01','2','Вывод в ремонт 1СШ-110 кВ с переводом всех присоединений на 2СШ-110 кв.','1СШ-110кВ'</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -7051,11 +7065,11 @@
         <v>130</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-02',2,'Ввод в работу 1СШ-110 кв. Вариант 1. Опробование от ВЛ-110 кВ Каучук.','1СШ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-02','2','Ввод в работу 1СШ-110 кв. Вариант 1. Опробование от ВЛ-110 кВ Каучук.','1СШ-110кВ'</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7069,11 +7083,11 @@
         <v>5</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-03',2,'Ввод в работу 1СШ-110 кв. Вариант 2. Опробование от ШСВ-110 кВ. ','1СШ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-03','2','Ввод в работу 1СШ-110 кв. Вариант 2. Опробование от ШСВ-110 кВ. ','1СШ-110кВ'</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -7087,11 +7101,11 @@
         <v>6</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-04',2,'Вывод в ремонт 2СШ-110 кВ с переводом всех присоединений на 1СШ-110 кВ.','2СШ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-04','2','Вывод в ремонт 2СШ-110 кВ с переводом всех присоединений на 1СШ-110 кВ.','2СШ-110кВ'</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -7105,11 +7119,11 @@
         <v>131</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-05',2,'Ввод в работу 2СШ-110 кВ. Вариант 1. Опробование от ВЛ-110 кВ ЧаТЭЦ.','2СШ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-05','2','Ввод в работу 2СШ-110 кВ. Вариант 1. Опробование от ВЛ-110 кВ ЧаТЭЦ.','2СШ-110кВ'</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -7123,11 +7137,11 @@
         <v>7</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-06',2,'Ввод в работу 2СШ-110 кВ. Вариант 2. Опробование от ШСВ-110 кВ.','2СШ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-06','2','Ввод в работу 2СШ-110 кВ. Вариант 2. Опробование от ШСВ-110 кВ.','2СШ-110кВ'</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -7141,11 +7155,11 @@
         <v>8</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-07',2,'Вывод в ремонт ОСШ-110 кВ.','ОСШ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-07','2','Вывод в ремонт ОСШ-110 кВ.','ОСШ-110кВ'</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -7159,11 +7173,11 @@
         <v>285</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-08',2,'Ввод в резерв ОСШ-110 кВ.','ОСШ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-08','2','Ввод в резерв ОСШ-110 кВ.','ОСШ-110кВ'</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -7177,11 +7191,11 @@
         <v>9</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-09',2,'Вывод в ремонт ТН 1СШ-110 кВ на время более 2 часов.','ТН 1СШ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-09','2','Вывод в ремонт ТН 1СШ-110 кВ на время более 2 часов.','ТН 1СШ-110кВ'</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -7195,11 +7209,11 @@
         <v>126</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-10',2,'Ввод в работу ТН 1СШ-110 кВ (ТН 1СШ-110 кВ был в ремонте более 2 часов).','ТН 1СШ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-10','2','Ввод в работу ТН 1СШ-110 кВ (ТН 1СШ-110 кВ был в ремонте более 2 часов).','ТН 1СШ-110кВ'</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -7213,11 +7227,11 @@
         <v>10</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-11',2,'Вывод в ремонт ТН 1СШ-110 кВ на время до 2 часов.','ТН 1СШ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-11','2','Вывод в ремонт ТН 1СШ-110 кВ на время до 2 часов.','ТН 1СШ-110кВ'</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -7231,11 +7245,11 @@
         <v>127</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-12',2,'Ввод в работу ТН 1СШ-110 кВ (ТН 1СШ-110 кВ был в ремонте менее 2 часов).','ТН 1СШ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-12','2','Ввод в работу ТН 1СШ-110 кВ (ТН 1СШ-110 кВ был в ремонте менее 2 часов).','ТН 1СШ-110кВ'</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -7249,11 +7263,11 @@
         <v>11</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-13',2,'Вывод в ремонт ТН 2СШ-110 кВ на время более 2 часов.','ТН 2СШ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-13','2','Вывод в ремонт ТН 2СШ-110 кВ на время более 2 часов.','ТН 2СШ-110кВ'</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -7267,11 +7281,11 @@
         <v>128</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-14',2,'Ввод в работу ТН 2СШ-110 кВ (ТН 2СШ-110 кВ был в ремонте более 2 часов).','ТН 2СШ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-14','2','Ввод в работу ТН 2СШ-110 кВ (ТН 2СШ-110 кВ был в ремонте более 2 часов).','ТН 2СШ-110кВ'</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -7285,11 +7299,11 @@
         <v>12</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-15',2,'Вывод в ремонт ТН 2СШ-110 кВ на время до 2 часов.','ТН 2СШ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-15','2','Вывод в ремонт ТН 2СШ-110 кВ на время до 2 часов.','ТН 2СШ-110кВ'</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -7303,11 +7317,11 @@
         <v>129</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-16',2,'Ввод в работу ТН 2СШ-110 кВ (ТН 2СШ-110 кВ был в ремонте менее 2 часов).','ТН 2СШ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-16','2','Ввод в работу ТН 2СШ-110 кВ (ТН 2СШ-110 кВ был в ремонте менее 2 часов).','ТН 2СШ-110кВ'</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -7321,11 +7335,11 @@
         <v>13</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="E38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-17',2,'Вывод в ремонт ШСВ-110 кВ.','ШСВ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-17','2','Вывод в ремонт ШСВ-110 кВ.','ШСВ-110кВ'</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -7339,11 +7353,11 @@
         <v>14</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="E39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-18',2,'Ввод в работу ШСВ-110 кВ.','ШСВ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-18','2','Ввод в работу ШСВ-110 кВ.','ШСВ-110кВ'</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -7357,11 +7371,11 @@
         <v>15</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-19',2,'Вывод в ремонт ОВ-110 кВ.','ОВ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-19','2','Вывод в ремонт ОВ-110 кВ.','ОВ-110кВ'</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -7375,11 +7389,11 @@
         <v>286</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-20',2,'Ввод в резерв ОВ-110 кВ.','ОВ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-20','2','Ввод в резерв ОВ-110 кВ.','ОВ-110кВ'</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -7393,11 +7407,11 @@
         <v>305</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="E42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-21',2,'Вывод в ремонт В-110 кВ Светлая.','В-110 кВ Светлая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-21','2','Вывод в ремонт В-110 кВ Светлая.','В-110 кВ Светлая'</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -7411,11 +7425,11 @@
         <v>16</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="E43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-22',2,'Ввод в работу В-110 кВ Светлая.','В-110 кВ Светлая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-22','2','Ввод в работу В-110 кВ Светлая.','В-110 кВ Светлая'</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -7429,11 +7443,11 @@
         <v>17</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="E44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-23',2,'Вывод в ремонт В-110 кВ Ивановка.','В-110 кВ Ивановка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-23','2','Вывод в ремонт В-110 кВ Ивановка.','В-110 кВ Ивановка'</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -7447,11 +7461,11 @@
         <v>18</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="E45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-24',2,'Ввод в работу В-110 кВ Ивановка.','В-110 кВ Ивановка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-24','2','Ввод в работу В-110 кВ Ивановка.','В-110 кВ Ивановка'</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -7465,11 +7479,11 @@
         <v>19</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-25',2,'Вывод в ремонт В-110 кВ Водозабор-1.','В-110 кВ Водозабор-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-25','2','Вывод в ремонт В-110 кВ Водозабор-1.','В-110 кВ Водозабор-1'</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -7483,11 +7497,11 @@
         <v>20</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-26',2,'Ввод в работу В-110 кВ Водозабор-1.','В-110 кВ Водозабор-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-26','2','Ввод в работу В-110 кВ Водозабор-1.','В-110 кВ Водозабор-1'</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -7501,11 +7515,11 @@
         <v>21</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-27',2,'Вывод в ремонт В-110 кВ Водозабор-2.','В-110 кВ Водозабор-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-27','2','Вывод в ремонт В-110 кВ Водозабор-2.','В-110 кВ Водозабор-2'</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -7519,11 +7533,11 @@
         <v>22</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-28',2,'Ввод в работу В-110 кВ Водозабор-2.','В-110 кВ Водозабор-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-28','2','Ввод в работу В-110 кВ Водозабор-2.','В-110 кВ Водозабор-2'</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -7537,11 +7551,11 @@
         <v>23</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="E50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-29',2,'Вывод в ремонт В-110 кВ Каучук.','В-110 кВ Каучук'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-29','2','Вывод в ремонт В-110 кВ Каучук.','В-110 кВ Каучук'</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -7555,11 +7569,11 @@
         <v>24</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="E51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-30',2,'Ввод в работу В-110 кВ Каучук.','В-110 кВ Каучук'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-30','2','Ввод в работу В-110 кВ Каучук.','В-110 кВ Каучук'</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -7573,11 +7587,11 @@
         <v>25</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="E52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-31',2,'Вывод в ремонт В-110 кВ ЧаТЭЦ.','В-110 кВ ЧаТЭЦ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-31','2','Вывод в ремонт В-110 кВ ЧаТЭЦ.','В-110 кВ ЧаТЭЦ'</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -7591,11 +7605,11 @@
         <v>26</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="E53" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-32',2,'Ввод в работу В-110 кВ ЧаТЭЦ.','В-110 кВ ЧаТЭЦ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-32','2','Ввод в работу В-110 кВ ЧаТЭЦ.','В-110 кВ ЧаТЭЦ'</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -7609,11 +7623,11 @@
         <v>287</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="E54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-33',2,'Вывод в ремонт В-110 кВ КШТ-1.','В-110 кВ КШТ-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-33','2','Вывод в ремонт В-110 кВ КШТ-1.','В-110 кВ КШТ-1'</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -7627,11 +7641,11 @@
         <v>27</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="E55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-34',2,'Ввод в работу В-110 кВ КШТ-1.','В-110 кВ КШТ-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-34','2','Ввод в работу В-110 кВ КШТ-1.','В-110 кВ КШТ-1'</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -7645,11 +7659,11 @@
         <v>288</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="E56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-35',2,'Вывод в ремонт В-110 кВ КШТ-2.','В-110 кВ КШТ-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-35','2','Вывод в ремонт В-110 кВ КШТ-2.','В-110 кВ КШТ-2'</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -7663,11 +7677,11 @@
         <v>28</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="E57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-36',2,'Ввод в работу В-110 кВ КШТ-2.','В-110 кВ КШТ-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-36','2','Ввод в работу В-110 кВ КШТ-2.','В-110 кВ КШТ-2'</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -7681,11 +7695,11 @@
         <v>29</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="E58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-37',2,'Вывод в ремонт В-110 кВ Берёзовка.','В-110 кВ Березовка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-37','2','Вывод в ремонт В-110 кВ Берёзовка.','В-110 кВ Березовка'</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -7699,11 +7713,11 @@
         <v>30</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="E59" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-38',2,'Ввод в работу В-110 кВ Берёзовка.','В-110 кВ Березовка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-38','2','Ввод в работу В-110 кВ Берёзовка.','В-110 кВ Березовка'</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -7717,11 +7731,11 @@
         <v>31</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-39',2,'Вывод в ремонт В-110 кВ Дубовая.','В-110 кВ Дубовая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-39','2','Вывод в ремонт В-110 кВ Дубовая.','В-110 кВ Дубовая'</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -7735,11 +7749,11 @@
         <v>32</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-40',2,'Ввод в работу В-110 кВ Дубовая.','В-110 кВ Дубовая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-40','2','Ввод в работу В-110 кВ Дубовая.','В-110 кВ Дубовая'</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -7753,11 +7767,11 @@
         <v>33</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="E62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-41',2,'Вывод в ремонт В-110 кВ 1Т.','В-110 кВ 1Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-41','2','Вывод в ремонт В-110 кВ 1Т.','В-110 кВ 1Т'</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -7771,11 +7785,11 @@
         <v>34</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="E63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-42',2,'Ввод в работу В-110 кВ 1Т.','В-110 кВ 1Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-42','2','Ввод в работу В-110 кВ 1Т.','В-110 кВ 1Т'</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -7789,11 +7803,11 @@
         <v>35</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-43',2,'Вывод в ремонт В-110 кВ 5,6АТ.','В-110 кВ 5,6АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-43','2','Вывод в ремонт В-110 кВ 5,6АТ.','В-110 кВ 5,6АТ'</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -7807,11 +7821,11 @@
         <v>36</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E65" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-44',2,'Ввод в работу В-110 кВ 5,6АТ.','В-110 кВ 5,6АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-44','2','Ввод в работу В-110 кВ 5,6АТ.','В-110 кВ 5,6АТ'</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -7825,11 +7839,11 @@
         <v>38</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f t="shared" ref="E66:E129" si="1">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A66,"',",B66,",'",C66,"','",D66,"'")</f>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-45',2,'Вывод в ремонт ВЛ-110 кВ Светлая.','ВЛ-110 кВ Светлая'</v>
+        <f t="shared" ref="E66:E129" si="1">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A66,"','",B66,"','",C66,"','",D66,"'")</f>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-45','2','Вывод в ремонт ВЛ-110 кВ Светлая.','ВЛ-110 кВ Светлая'</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -7843,11 +7857,11 @@
         <v>39</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="E67" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-46',2,'Ввод в работу ВЛ-110 кВ Светлая.','ВЛ-110 кВ Светлая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-46','2','Ввод в работу ВЛ-110 кВ Светлая.','ВЛ-110 кВ Светлая'</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -7861,11 +7875,11 @@
         <v>40</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="E68" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-47',2,'Вывод в ремонт ВЛ-110 кВ Ивановка.','ВЛ-110 кВ Ивановка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-47','2','Вывод в ремонт ВЛ-110 кВ Ивановка.','ВЛ-110 кВ Ивановка'</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -7879,11 +7893,11 @@
         <v>41</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="E69" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-48',2,'Ввод в работу ВЛ-110 кВ Ивановка.','ВЛ-110 кВ Ивановка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-48','2','Ввод в работу ВЛ-110 кВ Ивановка.','ВЛ-110 кВ Ивановка'</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -7897,11 +7911,11 @@
         <v>42</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="E70" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-49',2,'Вывод в ремонт ВЛ-110 кВ Водозабор-1.','ВЛ-110 кВ Водозабор-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-49','2','Вывод в ремонт ВЛ-110 кВ Водозабор-1.','ВЛ-110 кВ Водозабор-1'</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -7915,11 +7929,11 @@
         <v>43</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="E71" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-50',2,'Ввод в работу ВЛ-110 кВ Водозабор-1.','ВЛ-110 кВ Водозабор-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-50','2','Ввод в работу ВЛ-110 кВ Водозабор-1.','ВЛ-110 кВ Водозабор-1'</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -7933,11 +7947,11 @@
         <v>44</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="E72" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-51',2,'Вывод в ремонт ВЛ-110 кВ Водозабор-2.','ВЛ-110 кВ Водозабор-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-51','2','Вывод в ремонт ВЛ-110 кВ Водозабор-2.','ВЛ-110 кВ Водозабор-2'</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -7951,11 +7965,11 @@
         <v>45</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="E73" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-52',2,'Ввод в работу ВЛ-110 кВ Водозабор-2.','ВЛ-110 кВ Водозабор-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-52','2','Ввод в работу ВЛ-110 кВ Водозабор-2.','ВЛ-110 кВ Водозабор-2'</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -7969,11 +7983,11 @@
         <v>46</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="E74" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-53',2,'Вывод в ремонт ВЛ-110 кВ Каучук.','ВЛ-110 кВ Каучук'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-53','2','Вывод в ремонт ВЛ-110 кВ Каучук.','ВЛ-110 кВ Каучук'</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -7987,11 +8001,11 @@
         <v>47</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="E75" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-54',2,'Ввод в работу ВЛ-110 кВ Каучук.','ВЛ-110 кВ Каучук'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-54','2','Ввод в работу ВЛ-110 кВ Каучук.','ВЛ-110 кВ Каучук'</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -8005,11 +8019,11 @@
         <v>48</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E76" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-55',2,'Вывод в ремонт ВЛ-110 кВ ЧаТЭЦ.','ВЛ-110 кВ ЧаТЭЦ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-55','2','Вывод в ремонт ВЛ-110 кВ ЧаТЭЦ.','ВЛ-110 кВ ЧаТЭЦ'</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -8023,11 +8037,11 @@
         <v>49</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E77" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-56',2,'Ввод в работу ВЛ-110 кВ ЧаТЭЦ.','ВЛ-110 кВ ЧаТЭЦ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-56','2','Ввод в работу ВЛ-110 кВ ЧаТЭЦ.','ВЛ-110 кВ ЧаТЭЦ'</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -8041,11 +8055,11 @@
         <v>50</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E78" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-57',2,'Вывод в ремонт ВЛ-110 кВ КШТ-1.','ВЛ-110 кВ КШТ-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-57','2','Вывод в ремонт ВЛ-110 кВ КШТ-1.','ВЛ-110 кВ КШТ-1'</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -8059,11 +8073,11 @@
         <v>51</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E79" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-58',2,'Ввод в работу ВЛ-110 кВ КШТ-1.','ВЛ-110 кВ КШТ-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-58','2','Ввод в работу ВЛ-110 кВ КШТ-1.','ВЛ-110 кВ КШТ-1'</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -8077,11 +8091,11 @@
         <v>52</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E80" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-59',2,'Вывод в ремонт ВЛ-110 кВ КШТ-2.','ВЛ-110 кВ КШТ-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-59','2','Вывод в ремонт ВЛ-110 кВ КШТ-2.','ВЛ-110 кВ КШТ-2'</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -8095,11 +8109,11 @@
         <v>53</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E81" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-60',2,'Ввод в работу ВЛ-110 кВ КШТ-2.','ВЛ-110 кВ КШТ-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-60','2','Ввод в работу ВЛ-110 кВ КШТ-2.','ВЛ-110 кВ КШТ-2'</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -8113,11 +8127,11 @@
         <v>54</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E82" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-61',2,'Вывод в ремонт ВЛ-110 кВ Берёзовка.','ВЛ-110 кВ Березовка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-61','2','Вывод в ремонт ВЛ-110 кВ Берёзовка.','ВЛ-110 кВ Березовка'</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -8131,11 +8145,11 @@
         <v>55</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E83" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-62',2,'Ввод в работу ВЛ-110 кВ Берёзовка.','ВЛ-110 кВ Березовка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-62','2','Ввод в работу ВЛ-110 кВ Берёзовка.','ВЛ-110 кВ Березовка'</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -8149,11 +8163,11 @@
         <v>56</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="E84" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-63',2,'Вывод в ремонт ВЛ-110 кВ Дубовая.','ВЛ-110 кВ Дубовая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-63','2','Вывод в ремонт ВЛ-110 кВ Дубовая.','ВЛ-110 кВ Дубовая'</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -8167,11 +8181,11 @@
         <v>57</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="E85" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-64',2,'Ввод в работу ВЛ-110 кВ Дубовая.','ВЛ-110 кВ Дубовая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-64','2','Ввод в работу ВЛ-110 кВ Дубовая.','ВЛ-110 кВ Дубовая'</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -8185,11 +8199,11 @@
         <v>946</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E86" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-65',2,'Вывод в ремонт В 110кВ Водозабор-1(ДФЗ в ремонте)','В-110 кВ Водозабор-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-65','2','Вывод в ремонт В 110кВ Водозабор-1(ДФЗ в ремонте)','В-110 кВ Водозабор-1'</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -8203,11 +8217,11 @@
         <v>947</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E87" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-66',2,'Ввод в работу В 110кВ Водозабор-1(ДФЗ в ремонте)','В-110 кВ Водозабор-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-66','2','Ввод в работу В 110кВ Водозабор-1(ДФЗ в ремонте)','В-110 кВ Водозабор-1'</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -8221,11 +8235,11 @@
         <v>948</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E88" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-67',2,'Вывод в ремонт В 110кВ Водозабор-2(ДФЗ в ремонте)','В-110 кВ Водозабор-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-67','2','Вывод в ремонт В 110кВ Водозабор-2(ДФЗ в ремонте)','В-110 кВ Водозабор-2'</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -8239,11 +8253,11 @@
         <v>949</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E89" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-68',2,'Ввод в работу В 110кВ Водозабор-2(ДФЗ в ремонте)','В-110 кВ Водозабор-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-68','2','Ввод в работу В 110кВ Водозабор-2(ДФЗ в ремонте)','В-110 кВ Водозабор-2'</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -8257,11 +8271,11 @@
         <v>950</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="E90" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-69',2,'Вывод в ремонт В 110кВ Каучук(ДФЗ в ремонте)','В-110 кВ Каучук'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-69','2','Вывод в ремонт В 110кВ Каучук(ДФЗ в ремонте)','В-110 кВ Каучук'</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -8275,11 +8289,11 @@
         <v>951</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="E91" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-70',2,'Ввод в работу В 110кВ Каучук(ДФЗ в ремонте)','В-110 кВ Каучук'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-70','2','Ввод в работу В 110кВ Каучук(ДФЗ в ремонте)','В-110 кВ Каучук'</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -8293,11 +8307,11 @@
         <v>952</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="E92" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-71',2,'Вывод в ремонт В 110кВ ЧаТЭЦ(ДФЗ в ремонте)','В-110 кВ ЧаТЭЦ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-71','2','Вывод в ремонт В 110кВ ЧаТЭЦ(ДФЗ в ремонте)','В-110 кВ ЧаТЭЦ'</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -8311,11 +8325,11 @@
         <v>953</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="E93" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-72',2,'Ввод в работу В 110кВ ЧаТЭЦ(ДФЗ в ремонте)','В-110 кВ ЧаТЭЦ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-72','2','Ввод в работу В 110кВ ЧаТЭЦ(ДФЗ в ремонте)','В-110 кВ ЧаТЭЦ'</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -8329,11 +8343,11 @@
         <v>954</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="E94" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-73',2,'Вывод в ремонт В 110кВ Березовка(ДФЗ в ремонте)','В-110 кВ Березовка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-73','2','Вывод в ремонт В 110кВ Березовка(ДФЗ в ремонте)','В-110 кВ Березовка'</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -8347,11 +8361,11 @@
         <v>955</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="E95" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-74',2,'Ввод в работу В 110кВ Березовка(ДФЗ в ремонте)','В-110 кВ Березовка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-74','2','Ввод в работу В 110кВ Березовка(ДФЗ в ремонте)','В-110 кВ Березовка'</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -8365,11 +8379,11 @@
         <v>956</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E96" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-75',2,'Вывод в ремонт В 110кВ Дубовая(ДФЗ в ремонте)','В-110 кВ Дубовая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-75','2','Вывод в ремонт В 110кВ Дубовая(ДФЗ в ремонте)','В-110 кВ Дубовая'</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -8383,11 +8397,11 @@
         <v>957</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E97" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-76',2,' Ввод в работу В 110кВ Дубовая(ДФЗ в ремонте)','В-110 кВ Дубовая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '2-76','2',' Ввод в работу В 110кВ Дубовая(ДФЗ в ремонте)','В-110 кВ Дубовая'</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -8401,11 +8415,11 @@
         <v>132</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E98" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-01',3,'Вывод в ремонт 1СШ-220 кВ с переводом всех присоединений на 2СШ-220 кВ.','1СШ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-01','3','Вывод в ремонт 1СШ-220 кВ с переводом всех присоединений на 2СШ-220 кВ.','1СШ-220кВ'</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -8419,11 +8433,11 @@
         <v>119</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E99" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-02',3,'Ввод в работу 1СШ-220 кВ. Вариант 1. Опробование от ВЛ-220 кВ Каучук-1','1СШ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-02','3','Ввод в работу 1СШ-220 кВ. Вариант 1. Опробование от ВЛ-220 кВ Каучук-1','1СШ-220кВ'</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -8437,11 +8451,11 @@
         <v>120</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E100" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-03',3,'Ввод в работу 1СШ-220 кВ. Вариант 2. Опробование от ШСВ-220 кВ','1СШ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-03','3','Ввод в работу 1СШ-220 кВ. Вариант 2. Опробование от ШСВ-220 кВ','1СШ-220кВ'</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -8455,11 +8469,11 @@
         <v>289</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E101" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-04',3,'Вывод в ремонт 2СШ-220 кВ с переводом всех присоединений на 1СШ-220 кВ.','2СШ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-04','3','Вывод в ремонт 2СШ-220 кВ с переводом всех присоединений на 1СШ-220 кВ.','2СШ-220кВ'</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -8473,11 +8487,11 @@
         <v>121</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E102" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-05',3,'Ввод в работу 2СШ-220 кВ. Вариант 1. Опробование от ВЛ-220 кВ Каучук-2','2СШ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-05','3','Ввод в работу 2СШ-220 кВ. Вариант 1. Опробование от ВЛ-220 кВ Каучук-2','2СШ-220кВ'</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -8491,11 +8505,11 @@
         <v>122</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E103" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-06',3,'Ввод в работу 2СШ-220 кВ. Вариант 2. Опробование от ШСВ-220 кВ','2СШ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-06','3','Ввод в работу 2СШ-220 кВ. Вариант 2. Опробование от ШСВ-220 кВ','2СШ-220кВ'</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -8509,11 +8523,11 @@
         <v>75</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="E104" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-07',3,'Вывод в ремонт ОСШ-220кВ','ОСШ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-07','3','Вывод в ремонт ОСШ-220кВ','ОСШ-220кВ'</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -8527,11 +8541,11 @@
         <v>290</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="E105" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-08',3,'Ввод в резерв ОСШ-220кВ','ОСШ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-08','3','Ввод в резерв ОСШ-220кВ','ОСШ-220кВ'</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -8545,11 +8559,11 @@
         <v>76</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E106" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-09',3,'Вывод в ремонт ТН 1СШ-220 кВ на время более 2 часов','ТН 1СШ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-09','3','Вывод в ремонт ТН 1СШ-220 кВ на время более 2 часов','ТН 1СШ-220кВ'</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -8563,11 +8577,11 @@
         <v>123</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E107" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-10',3,'Ввод в работу ТН 1СШ-220 кВ. (ТН 1СШ-220 кВ в ремонте более 2 часов)','ТН 1СШ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-10','3','Ввод в работу ТН 1СШ-220 кВ. (ТН 1СШ-220 кВ в ремонте более 2 часов)','ТН 1СШ-220кВ'</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -8581,11 +8595,11 @@
         <v>77</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E108" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-11',3,'Вывод в ремонт ТН 1СШ-220 кВ на время до 2 часов','ТН 1СШ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-11','3','Вывод в ремонт ТН 1СШ-220 кВ на время до 2 часов','ТН 1СШ-220кВ'</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -8599,11 +8613,11 @@
         <v>133</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E109" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-12',3,'Ввод в работу ТН 1СШ-220 кВ. (ТН 1СШ-220 кВ в ремонте до 2 часов)','ТН 1СШ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-12','3','Ввод в работу ТН 1СШ-220 кВ. (ТН 1СШ-220 кВ в ремонте до 2 часов)','ТН 1СШ-220кВ'</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -8617,11 +8631,11 @@
         <v>78</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E110" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-13',3,'Вывод в ремонт ТН 2СШ-220 кВ на время более 2 часов','ТН 2СШ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-13','3','Вывод в ремонт ТН 2СШ-220 кВ на время более 2 часов','ТН 2СШ-220кВ'</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -8635,11 +8649,11 @@
         <v>124</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E111" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-14',3,'Ввод в работу ТН 2СШ-220 кВ. (ТН 2СШ-220 кВ в ремонте более 2 часов)','ТН 2СШ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-14','3','Ввод в работу ТН 2СШ-220 кВ. (ТН 2СШ-220 кВ в ремонте более 2 часов)','ТН 2СШ-220кВ'</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -8653,11 +8667,11 @@
         <v>79</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E112" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-15',3,'Вывод в ремонт ТН 2СШ-220 кВ на время до 2 часов','ТН 2СШ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-15','3','Вывод в ремонт ТН 2СШ-220 кВ на время до 2 часов','ТН 2СШ-220кВ'</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -8671,11 +8685,11 @@
         <v>80</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E113" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-16',3,'Ввод в работу ТН 2СШ-220 кВ. (ТН 2СШ-220 кВ в ремонте до 2 часов)','ТН 2СШ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-16','3','Ввод в работу ТН 2СШ-220 кВ. (ТН 2СШ-220 кВ в ремонте до 2 часов)','ТН 2СШ-220кВ'</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -8689,11 +8703,11 @@
         <v>81</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="E114" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-17',3,'Вывод в ремонт ШСВ-220 кВ','ШСВ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-17','3','Вывод в ремонт ШСВ-220 кВ','ШСВ-220кВ'</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -8707,11 +8721,11 @@
         <v>82</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="E115" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-18',3,'Ввод в работу ШСВ-220 кВ','ШСВ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-18','3','Ввод в работу ШСВ-220 кВ','ШСВ-220кВ'</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -8725,11 +8739,11 @@
         <v>83</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="E116" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-19',3,'Вывод в ремонт ОВ-220 кВ','ОВ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-19','3','Вывод в ремонт ОВ-220 кВ','ОВ-220кВ'</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -8743,11 +8757,11 @@
         <v>84</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="E117" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-20',3,'Ввод в резерв ОВ-220 кВ','ОВ-220кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-20','3','Ввод в резерв ОВ-220 кВ','ОВ-220кВ'</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -8761,11 +8775,11 @@
         <v>291</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E118" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-21',3,'Вывод в ремонт В-220 кВ Ижевск 1','В-220 кВ Ижевск-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-21','3','Вывод в ремонт В-220 кВ Ижевск 1','В-220 кВ Ижевск-1'</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -8779,11 +8793,11 @@
         <v>292</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E119" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-22',3,'Ввод в работу В-220 кВ Ижевск 1','В-220 кВ Ижевск-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-22','3','Ввод в работу В-220 кВ Ижевск 1','В-220 кВ Ижевск-1'</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -8797,11 +8811,11 @@
         <v>293</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E120" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-23',3,'Вывод в ремонт В-220 кВ Ижевск 2','В-220 кВ Ижевск-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-23','3','Вывод в ремонт В-220 кВ Ижевск 2','В-220 кВ Ижевск-2'</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -8815,11 +8829,11 @@
         <v>294</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E121" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-24',3,'Ввод в работу В-220 кВ Ижевск 2','В-220 кВ Ижевск-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-24','3','Ввод в работу В-220 кВ Ижевск 2','В-220 кВ Ижевск-2'</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -8833,11 +8847,11 @@
         <v>85</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="E122" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-25',3,'Вывод в ремонт В-220 кВ Каучук-1','В-220 кВ Каучук-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-25','3','Вывод в ремонт В-220 кВ Каучук-1','В-220 кВ Каучук-1'</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -8851,11 +8865,11 @@
         <v>86</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="E123" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-26',3,'Ввод в работу В-220 кВ Каучук-1','В-220 кВ Каучук-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-26','3','Ввод в работу В-220 кВ Каучук-1','В-220 кВ Каучук-1'</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -8869,11 +8883,11 @@
         <v>87</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E124" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-27',3,'Вывод в ремонт В-220 кВ Каучук-2','В-220 кВ Каучук-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-27','3','Вывод в ремонт В-220 кВ Каучук-2','В-220 кВ Каучук-2'</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -8887,11 +8901,11 @@
         <v>88</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E125" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-28',3,'Ввод в работу В-220 кВ Каучук-2','В-220 кВ Каучук-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-28','3','Ввод в работу В-220 кВ Каучук-2','В-220 кВ Каучук-2'</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -8905,11 +8919,11 @@
         <v>89</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E126" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-29',3,'Вывод в ремонт В-220 кВ Светлая','В-220 кВ Светлая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-29','3','Вывод в ремонт В-220 кВ Светлая','В-220 кВ Светлая'</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -8923,11 +8937,11 @@
         <v>90</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E127" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-30',3,'Ввод в работу В-220 кВ Светлая','В-220 кВ Светлая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-30','3','Ввод в работу В-220 кВ Светлая','В-220 кВ Светлая'</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -8941,11 +8955,11 @@
         <v>756</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="E128" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-31',3,'Вывод в ремонт В-220 кВ 2АТГ','В-220 кВ 2АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-31','3','Вывод в ремонт В-220 кВ 2АТГ','В-220 кВ 2АТГ'</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -8959,11 +8973,11 @@
         <v>757</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="E129" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-32',3,'Ввод в работу В-220 кВ 2АТГ','В-220 кВ 2АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-32','3','Ввод в работу В-220 кВ 2АТГ','В-220 кВ 2АТГ'</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -8977,11 +8991,11 @@
         <v>758</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E130" s="1" t="str">
-        <f t="shared" ref="E130:E193" si="2">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A130,"',",B130,",'",C130,"','",D130,"'")</f>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-33',3,'Вывод в ремонт В-220 кВ 3АТГ','В-220 кВ 3АТГ'</v>
+        <f t="shared" ref="E130:E193" si="2">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A130,"','",B130,"','",C130,"','",D130,"'")</f>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-33','3','Вывод в ремонт В-220 кВ 3АТГ','В-220 кВ 3АТГ'</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -8995,11 +9009,11 @@
         <v>759</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E131" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-34',3,'Ввод в работу В-220 кВ 3АТГ','В-220 кВ 3АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-34','3','Ввод в работу В-220 кВ 3АТГ','В-220 кВ 3АТГ'</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -9013,11 +9027,11 @@
         <v>91</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E132" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-35',3,'Вывод в ремонт В-220 кВ 4Т','В-220 кВ 4Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-35','3','Вывод в ремонт В-220 кВ 4Т','В-220 кВ 4Т'</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -9031,11 +9045,11 @@
         <v>92</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E133" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-36',3,'Ввод в работу В-220 кВ 4Т','В-220 кВ 4Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-36','3','Ввод в работу В-220 кВ 4Т','В-220 кВ 4Т'</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -9049,11 +9063,11 @@
         <v>93</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E134" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-37',3,'Вывод в ремонт В-220 кВ 5,6 АТ','В-220 кВ 5,6АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-37','3','Вывод в ремонт В-220 кВ 5,6 АТ','В-220 кВ 5,6АТ'</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -9067,11 +9081,11 @@
         <v>94</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E135" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-38',3,'Ввод в работу В-220 кВ 5,6 АТ','В-220 кВ 5,6АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-38','3','Ввод в работу В-220 кВ 5,6 АТ','В-220 кВ 5,6АТ'</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -9085,11 +9099,11 @@
         <v>295</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E136" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-39',3,'Вывод в ремонт ВЛ-220 кВ Ижевск 1','ВЛ-220 кВ Ижевск-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-39','3','Вывод в ремонт ВЛ-220 кВ Ижевск 1','ВЛ-220 кВ Ижевск-1'</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -9103,11 +9117,11 @@
         <v>296</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E137" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-40',3,'Ввод в работу ВЛ-220 кВ Ижевск 1','ВЛ-220 кВ Ижевск-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-40','3','Ввод в работу ВЛ-220 кВ Ижевск 1','ВЛ-220 кВ Ижевск-1'</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -9121,11 +9135,11 @@
         <v>301</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E138" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-41',3,'Вывод в ремонт ВЛ-220 кВ Ижевск 2','ВЛ-220 кВ Ижевск-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-41','3','Вывод в ремонт ВЛ-220 кВ Ижевск 2','ВЛ-220 кВ Ижевск-2'</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -9139,11 +9153,11 @@
         <v>302</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E139" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-42',3,'Ввод в работу ВЛ-220 кВ Ижжевск 2','ВЛ-220 кВ Ижевск-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-42','3','Ввод в работу ВЛ-220 кВ Ижжевск 2','ВЛ-220 кВ Ижевск-2'</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -9157,11 +9171,11 @@
         <v>103</v>
       </c>
       <c r="D140" s="23" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E140" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-43',3,'Вывод в ремонт ВЛ-220 кВ Каучук-1','ВЛ-220 кВ Каучук-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-43','3','Вывод в ремонт ВЛ-220 кВ Каучук-1','ВЛ-220 кВ Каучук-1'</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -9175,11 +9189,11 @@
         <v>104</v>
       </c>
       <c r="D141" s="23" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E141" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-44',3,'Ввод в работу ВЛ-220 кВ Каучук-1','ВЛ-220 кВ Каучук-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-44','3','Ввод в работу ВЛ-220 кВ Каучук-1','ВЛ-220 кВ Каучук-1'</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -9193,11 +9207,11 @@
         <v>105</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E142" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-45',3,'Вывод в ремонт ВЛ-220 кВ Каучук-2','ВЛ-220 кВ Каучук-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-45','3','Вывод в ремонт ВЛ-220 кВ Каучук-2','ВЛ-220 кВ Каучук-2'</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -9211,11 +9225,11 @@
         <v>106</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E143" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-46',3,'Ввод в работу ВЛ-220 кВ Каучук-2','ВЛ-220 кВ Каучук-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-46','3','Ввод в работу ВЛ-220 кВ Каучук-2','ВЛ-220 кВ Каучук-2'</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -9229,11 +9243,11 @@
         <v>107</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E144" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-47',3,'Вывод в ремонт ВЛ-220 кВ Светлая','ВЛ-220 кВ Светлая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-47','3','Вывод в ремонт ВЛ-220 кВ Светлая','ВЛ-220 кВ Светлая'</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -9247,11 +9261,11 @@
         <v>108</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E145" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-48',3,'Ввод в работу ВЛ-220 кВ Светлая','ВЛ-220 кВ Светлая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-48','3','Ввод в работу ВЛ-220 кВ Светлая','ВЛ-220 кВ Светлая'</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -9265,11 +9279,11 @@
         <v>968</v>
       </c>
       <c r="D146" s="23" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E146" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-49',3,'Вывод В-220 кВ Ижевск 1(ДФЗ в ремонте)','В-220 кВ Ижевск-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-49','3','Вывод В-220 кВ Ижевск 1(ДФЗ в ремонте)','В-220 кВ Ижевск-1'</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -9283,11 +9297,11 @@
         <v>969</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E147" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-50',3,'Ввод В-220 кВ Ижевск 1(ДФЗ в ремонте)','В-220 кВ Ижевск-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-50','3','Ввод В-220 кВ Ижевск 1(ДФЗ в ремонте)','В-220 кВ Ижевск-1'</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -9301,11 +9315,11 @@
         <v>970</v>
       </c>
       <c r="D148" s="23" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E148" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-51',3,' Вывод В-220 кВ Ижевск 2(ДФЗ в ремонте)','В-220 кВ Ижевск-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-51','3',' Вывод В-220 кВ Ижевск 2(ДФЗ в ремонте)','В-220 кВ Ижевск-2'</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -9319,11 +9333,11 @@
         <v>971</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E149" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-52',3,' Ввод В-220 кВ Ижевск 2(ДФЗ в ремонте)','В-220 кВ Ижевск-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-52','3',' Ввод В-220 кВ Ижевск 2(ДФЗ в ремонте)','В-220 кВ Ижевск-2'</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -9337,11 +9351,11 @@
         <v>972</v>
       </c>
       <c r="D150" s="23" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="E150" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-53',3,'Вывод  В 220 Каучук-1(ДФЗ в ремонте)','В-220 кВ Каучук-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-53','3','Вывод  В 220 Каучук-1(ДФЗ в ремонте)','В-220 кВ Каучук-1'</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -9355,11 +9369,11 @@
         <v>973</v>
       </c>
       <c r="D151" s="23" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="E151" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-54',3,'Ввод В-220 кВ Каучук 1(ДФЗ в ремонте)','В-220 кВ Каучук-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-54','3','Ввод В-220 кВ Каучук 1(ДФЗ в ремонте)','В-220 кВ Каучук-1'</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -9373,11 +9387,11 @@
         <v>974</v>
       </c>
       <c r="D152" s="23" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E152" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-55',3,'Вывод В-220 кВ Каучук 2(ДФЗ в ремонте)','В-220 кВ Каучук-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-55','3','Вывод В-220 кВ Каучук 2(ДФЗ в ремонте)','В-220 кВ Каучук-2'</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -9391,11 +9405,11 @@
         <v>975</v>
       </c>
       <c r="D153" s="23" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E153" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-56',3,'Ввод В-220 кВ Каучук 2(ДФЗ в ремонте)','В-220 кВ Каучук-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-56','3','Ввод В-220 кВ Каучук 2(ДФЗ в ремонте)','В-220 кВ Каучук-2'</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -9409,11 +9423,11 @@
         <v>976</v>
       </c>
       <c r="D154" s="23" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E154" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-57',3,'Вывод В-220 кВ Светлая(ДФЗ в ремонте)','В-220 кВ Светлая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-57','3','Вывод В-220 кВ Светлая(ДФЗ в ремонте)','В-220 кВ Светлая'</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -9427,11 +9441,11 @@
         <v>977</v>
       </c>
       <c r="D155" s="23" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E155" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-58',3,'Ввод В-220 кВ Светлая(ДФЗ в ремонте)','В-220 кВ Светлая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '3-58','3','Ввод В-220 кВ Светлая(ДФЗ в ремонте)','В-220 кВ Светлая'</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -9445,11 +9459,11 @@
         <v>109</v>
       </c>
       <c r="D156" s="23" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E156" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-01',4,'Вывод в ремонт ВЛ-500 кВ Воткинская ГЭС-Емелино','ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-01','4','Вывод в ремонт ВЛ-500 кВ Воткинская ГЭС-Емелино','ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -9463,11 +9477,11 @@
         <v>110</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E157" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-02',4,'Ввод в работу ВЛ-500 кВ Воткинская ГЭС-Емелино','ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-02','4','Ввод в работу ВЛ-500 кВ Воткинская ГЭС-Емелино','ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -9481,11 +9495,11 @@
         <v>111</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E158" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-03',4,'Вывод в ремонт ВЛ-500 кВ Воткинская ГЭС-Кармановская ГРЭС','ВЛ-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-03','4','Вывод в ремонт ВЛ-500 кВ Воткинская ГЭС-Кармановская ГРЭС','ВЛ-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -9499,11 +9513,11 @@
         <v>112</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E159" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-04',4,'Ввод в работу ВЛ-500 кВ Воткинская ГЭС-Кармановская ГРЭС','ВЛ-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-04','4','Ввод в работу ВЛ-500 кВ Воткинская ГЭС-Кармановская ГРЭС','ВЛ-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -9517,11 +9531,11 @@
         <v>113</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E160" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-05',4,'Вывод в ремонт ВЛ-500 кВ Воткинская ГЭС-Вятка','ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-05','4','Вывод в ремонт ВЛ-500 кВ Воткинская ГЭС-Вятка','ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -9535,11 +9549,11 @@
         <v>114</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E161" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-06',4,'Ввод в работу ВЛ-500 кВ Воткинская ГЭС-Вятка','ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-06','4','Ввод в работу ВЛ-500 кВ Воткинская ГЭС-Вятка','ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -9553,11 +9567,11 @@
         <v>383</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="E162" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-07',4,'Вывод в ремонт В-1-500 кВ Емелино','В-1-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-07','4','Вывод в ремонт В-1-500 кВ Емелино','В-1-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -9571,11 +9585,11 @@
         <v>384</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="E163" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-08',4,'Ввод в работу В-1-500 кВ Емелино','В-1-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-08','4','Ввод в работу В-1-500 кВ Емелино','В-1-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -9589,11 +9603,11 @@
         <v>385</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="E164" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-09',4,'Вывод в ремонт В-2-500 кВ Емелино','В-2-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-09','4','Вывод в ремонт В-2-500 кВ Емелино','В-2-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -9607,11 +9621,11 @@
         <v>386</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="E165" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-10',4,'Ввод в работу В-2-500 кВ Емелино','В-2-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-10','4','Ввод в работу В-2-500 кВ Емелино','В-2-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -9625,11 +9639,11 @@
         <v>387</v>
       </c>
       <c r="D166" s="23" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E166" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-11',4,'Вывод в ремонт В-1-500 кВ Карманово','В-1-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-11','4','Вывод в ремонт В-1-500 кВ Карманово','В-1-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -9643,11 +9657,11 @@
         <v>388</v>
       </c>
       <c r="D167" s="23" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E167" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-12',4,'Ввод в работу В-1-500 кВ Карманово','В-1-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-12','4','Ввод в работу В-1-500 кВ Карманово','В-1-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -9661,11 +9675,11 @@
         <v>389</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E168" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-13',4,'Вывод в ремонт В-2-500 кВ Карманово','В-2-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-13','4','Вывод в ремонт В-2-500 кВ Карманово','В-2-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -9679,11 +9693,11 @@
         <v>390</v>
       </c>
       <c r="D169" s="23" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E169" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-14',4,'Ввод в работу В-2-500 кВ Карманово','В-2-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-14','4','Ввод в работу В-2-500 кВ Карманово','В-2-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -9697,11 +9711,11 @@
         <v>391</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="E170" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-15',4,'Вывод в ремонт В-1-500 кВ Вятка','В-1-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-15','4','Вывод в ремонт В-1-500 кВ Вятка','В-1-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -9715,11 +9729,11 @@
         <v>392</v>
       </c>
       <c r="D171" s="23" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="E171" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-16',4,'Ввод в работу В-1-500 кВ Вятка','В-1-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-16','4','Ввод в работу В-1-500 кВ Вятка','В-1-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -9733,11 +9747,11 @@
         <v>393</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="E172" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-17',4,'Вывод в ремонт В-2-500 кВ Вятка','В-2-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-17','4','Вывод в ремонт В-2-500 кВ Вятка','В-2-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -9751,11 +9765,11 @@
         <v>394</v>
       </c>
       <c r="D173" s="23" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="E173" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-18',4,'Ввод в работу В-2-500 кВ Вятка','В-2-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-18','4','Ввод в работу В-2-500 кВ Вятка','В-2-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -9769,11 +9783,11 @@
         <v>115</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E174" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-19',4,'Вывод в ремонт 1СШ-500 кВ','1СШ-500 кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-19','4','Вывод в ремонт 1СШ-500 кВ','1СШ-500 кВ'</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -9787,11 +9801,11 @@
         <v>986</v>
       </c>
       <c r="D175" s="23" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E175" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-20',4,'Ввод в работу 1СШ-500 кВ. Вариант №1. Опробование 1СШ-500 кВ от В-220 кВ 2АТГ','1СШ-500 кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-20','4','Ввод в работу 1СШ-500 кВ. Вариант №1. Опробование 1СШ-500 кВ от В-220 кВ 2АТГ','1СШ-500 кВ'</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -9805,11 +9819,11 @@
         <v>987</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E176" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-21',4,'Ввод в работу 1СШ-500 кВ. Вариант №2. Опробование 1СШ-500 кВ от 1В-500 кВ Емелино','1СШ-500 кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-21','4','Ввод в работу 1СШ-500 кВ. Вариант №2. Опробование 1СШ-500 кВ от 1В-500 кВ Емелино','1СШ-500 кВ'</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -9823,11 +9837,11 @@
         <v>117</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="E177" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-22',4,'Вывод в ремонт 2СШ-500 кВ','2СШ-500 кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-22','4','Вывод в ремонт 2СШ-500 кВ','2СШ-500 кВ'</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -9841,11 +9855,11 @@
         <v>988</v>
       </c>
       <c r="D178" s="23" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="E178" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-23',4,'Ввод в работу 2СШ-500 кВ. Вариант №1. Опробование 2СШ-500 кВ от В-220 кВ 3АТГ','2СШ-500 кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-23','4','Ввод в работу 2СШ-500 кВ. Вариант №1. Опробование 2СШ-500 кВ от В-220 кВ 3АТГ','2СШ-500 кВ'</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -9859,11 +9873,11 @@
         <v>989</v>
       </c>
       <c r="D179" s="23" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="E179" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-24',4,'Ввод в работу 2СШ-500 кВ. Вариант №2. Опробование 2СШ-500 кВ от 2В-500 кВ Емелино','2СШ-500 кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-24','4','Ввод в работу 2СШ-500 кВ. Вариант №2. Опробование 2СШ-500 кВ от 2В-500 кВ Емелино','2СШ-500 кВ'</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -9877,11 +9891,11 @@
         <v>395</v>
       </c>
       <c r="D180" s="23" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="E180" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-25',4,'Вывод в ремонт Р 500 кВ Емелино','Р 500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-25','4','Вывод в ремонт Р 500 кВ Емелино','Р 500 кВ Емелино'</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -9895,11 +9909,11 @@
         <v>396</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="E181" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-26',4,'Ввод в работу Р 500 кВ Емелино','Р 500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-26','4','Ввод в работу Р 500 кВ Емелино','Р 500 кВ Емелино'</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -9913,11 +9927,11 @@
         <v>397</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E182" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-27',4,'Вывод в ремонт Р 500 кВ Вятка','Р 500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-27','4','Вывод в ремонт Р 500 кВ Вятка','Р 500 кВ Вятка'</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -9931,11 +9945,11 @@
         <v>398</v>
       </c>
       <c r="D183" s="23" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E183" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-28',4,'Ввод в работу Р 500 кВ Вятка','Р 500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-28','4','Ввод в работу Р 500 кВ Вятка','Р 500 кВ Вятка'</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -9949,11 +9963,11 @@
         <v>680</v>
       </c>
       <c r="D184" s="23" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="E184" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-29',4,'Вывод в ремонт ТН-1-500','ТН-1-500'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-29','4','Вывод в ремонт ТН-1-500','ТН-1-500'</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -9967,11 +9981,11 @@
         <v>681</v>
       </c>
       <c r="D185" s="23" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="E185" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-30',4,'Ввод в работу ТН-1-500','ТН-1-500'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-30','4','Ввод в работу ТН-1-500','ТН-1-500'</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -9985,11 +9999,11 @@
         <v>682</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="E186" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-31',4,'Вывод в ремонт ТН-2-500','ТН-2-500'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-31','4','Вывод в ремонт ТН-2-500','ТН-2-500'</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -10003,11 +10017,11 @@
         <v>683</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="E187" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-32',4,'Ввод в работу ТН-2-500','ТН-2-500'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '4-32','4','Ввод в работу ТН-2-500','ТН-2-500'</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -10021,11 +10035,11 @@
         <v>125</v>
       </c>
       <c r="D188" s="23" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E188" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-01',5,'Вывод в ремонт трансформатора 1Т.','Трансформатор 1Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-01','5','Вывод в ремонт трансформатора 1Т.','Трансформатор 1Т'</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -10039,11 +10053,11 @@
         <v>37</v>
       </c>
       <c r="D189" s="23" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E189" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-02',5,'Ввод в работу трансформатора 1Т.','Трансформатор 1Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-02','5','Ввод в работу трансформатора 1Т.','Трансформатор 1Т'</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -10057,11 +10071,11 @@
         <v>762</v>
       </c>
       <c r="D190" s="23" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E190" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-03',5,'Вывод в ремонт автотрансформатора 2АТГ','Трансформатор 2АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-03','5','Вывод в ремонт автотрансформатора 2АТГ','Трансформатор 2АТГ'</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -10075,11 +10089,11 @@
         <v>763</v>
       </c>
       <c r="D191" s="23" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E191" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-04',5,'Ввод в работу автотрансформатора 2АТГ','Трансформатор 2АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-04','5','Ввод в работу автотрансформатора 2АТГ','Трансформатор 2АТГ'</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -10093,11 +10107,11 @@
         <v>764</v>
       </c>
       <c r="D192" s="23" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="E192" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-05',5,'Вывод в ремонт автотрансформатора 3АТГ','Трансформатор 3АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-05','5','Вывод в ремонт автотрансформатора 3АТГ','Трансформатор 3АТГ'</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -10111,11 +10125,11 @@
         <v>765</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="E193" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-06',5,'Ввод в работу автотрансформатора 3АТГ','Трансформатор 3АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-06','5','Ввод в работу автотрансформатора 3АТГ','Трансформатор 3АТГ'</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -10129,11 +10143,11 @@
         <v>95</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E194" s="1" t="str">
-        <f t="shared" ref="E194:E257" si="3">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A194,"',",B194,",'",C194,"','",D194,"'")</f>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-07',5,'Вывод в ремонт трансформатора 4Т','Трансформатор 4Т'</v>
+        <f t="shared" ref="E194:E257" si="3">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A194,"','",B194,"','",C194,"','",D194,"'")</f>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-07','5','Вывод в ремонт трансформатора 4Т','Трансформатор 4Т'</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -10147,11 +10161,11 @@
         <v>96</v>
       </c>
       <c r="D195" s="23" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E195" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-08',5,'Ввод в работу трансформатора 4Т','Трансформатор 4Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-08','5','Ввод в работу трансформатора 4Т','Трансформатор 4Т'</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -10165,11 +10179,11 @@
         <v>97</v>
       </c>
       <c r="D196" s="23" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E196" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-09',5,'Вывод в ремонт автотрансформаторов 5,6АТ','Трансформатор 5,6АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-09','5','Вывод в ремонт автотрансформаторов 5,6АТ','Трансформатор 5,6АТ'</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -10183,11 +10197,11 @@
         <v>98</v>
       </c>
       <c r="D197" s="23" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E197" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-10',5,'Ввод в работу автотрансформаторов 5,6АТ','Трансформатор 5,6АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-10','5','Ввод в работу автотрансформаторов 5,6АТ','Трансформатор 5,6АТ'</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -10201,11 +10215,11 @@
         <v>99</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E198" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-11',5,'Вывод в ремонт автотрансформатора 5АТ','Трансформатор 5АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-11','5','Вывод в ремонт автотрансформатора 5АТ','Трансформатор 5АТ'</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -10219,11 +10233,11 @@
         <v>100</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E199" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-12',5,'Ввод в работу автотрансформатора 5АТ','Трансформатор 5АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-12','5','Ввод в работу автотрансформатора 5АТ','Трансформатор 5АТ'</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -10237,11 +10251,11 @@
         <v>101</v>
       </c>
       <c r="D200" s="23" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E200" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-13',5,'Вывод в ремонт автотрансформатора 6АТ','Трансформатор 6АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-13','5','Вывод в ремонт автотрансформатора 6АТ','Трансформатор 6АТ'</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -10255,11 +10269,11 @@
         <v>102</v>
       </c>
       <c r="D201" s="23" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E201" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-14',5,'Ввод в работу автотрансформатора 6АТ','Трансформатор 6АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-14','5','Ввод в работу автотрансформатора 6АТ','Трансформатор 6АТ'</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -10273,11 +10287,11 @@
         <v>744</v>
       </c>
       <c r="D202" s="23" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E202" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-15',5,'Вывод в ремонт трнасформатора 7Т','Трансформатор 7Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-15','5','Вывод в ремонт трнасформатора 7Т','Трансформатор 7Т'</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -10291,11 +10305,11 @@
         <v>745</v>
       </c>
       <c r="D203" s="23" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E203" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-16',5,'Ввод в работу трнасформатора 7Т','Трансформатор 7Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-16','5','Ввод в работу трнасформатора 7Т','Трансформатор 7Т'</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -10309,11 +10323,11 @@
         <v>746</v>
       </c>
       <c r="D204" s="23" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E204" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-17',5,'Вывод в ремонт трнасформатора 8Т','Трансформатор 8Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-17','5','Вывод в ремонт трнасформатора 8Т','Трансформатор 8Т'</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -10327,11 +10341,11 @@
         <v>747</v>
       </c>
       <c r="D205" s="23" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E205" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-18',5,'Ввод в работу трнасформатора 8Т','Трансформатор 8Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-18','5','Ввод в работу трнасформатора 8Т','Трансформатор 8Т'</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -10345,11 +10359,11 @@
         <v>748</v>
       </c>
       <c r="D206" s="23" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E206" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-19',5,'Вывод в ремонт трнасформатора 9Т','Трансформатор 9Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-19','5','Вывод в ремонт трнасформатора 9Т','Трансформатор 9Т'</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -10363,11 +10377,11 @@
         <v>749</v>
       </c>
       <c r="D207" s="23" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E207" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-20',5,'Ввод в работу трнасформатора 9Т','Трансформатор 9Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-20','5','Ввод в работу трнасформатора 9Т','Трансформатор 9Т'</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -10381,11 +10395,11 @@
         <v>650</v>
       </c>
       <c r="D208" s="23" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E208" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-21',5,'Вывод МЗ-1 1Т','МЗ-1 1Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-21','5','Вывод МЗ-1 1Т','МЗ-1 1Т'</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -10399,11 +10413,11 @@
         <v>664</v>
       </c>
       <c r="D209" s="23" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E209" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-22',5,'Ввод МЗ-1 1Т','МЗ-1 1Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-22','5','Ввод МЗ-1 1Т','МЗ-1 1Т'</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -10417,11 +10431,11 @@
         <v>651</v>
       </c>
       <c r="D210" s="23" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="E210" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-23',5,'Вывод МЗ-2 1Т','МЗ-2 1Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-23','5','Вывод МЗ-2 1Т','МЗ-2 1Т'</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -10435,11 +10449,11 @@
         <v>665</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="E211" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-24',5,'Ввод МЗ-2 1Т','МЗ-2 1Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-24','5','Ввод МЗ-2 1Т','МЗ-2 1Т'</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -10453,11 +10467,11 @@
         <v>652</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="E212" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-25',5,'Вывод МЗ-1 2АТГ','МЗ-1 2АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-25','5','Вывод МЗ-1 2АТГ','МЗ-1 2АТГ'</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -10471,11 +10485,11 @@
         <v>666</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="E213" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-26',5,'Ввод МЗ-1 2АТГ','МЗ-1 2АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-26','5','Ввод МЗ-1 2АТГ','МЗ-1 2АТГ'</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -10489,11 +10503,11 @@
         <v>653</v>
       </c>
       <c r="D214" s="23" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="E214" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-27',5,'Вывод МЗ-2 2АТГ','МЗ-2 2АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-27','5','Вывод МЗ-2 2АТГ','МЗ-2 2АТГ'</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -10507,11 +10521,11 @@
         <v>667</v>
       </c>
       <c r="D215" s="23" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="E215" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-28',5,'Ввод МЗ-2 2АТГ','МЗ-2 2АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-28','5','Ввод МЗ-2 2АТГ','МЗ-2 2АТГ'</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -10525,11 +10539,11 @@
         <v>654</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="E216" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-29',5,'Вывод КСЗ 500 2АТГ','КСЗ 500 2АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-29','5','Вывод КСЗ 500 2АТГ','КСЗ 500 2АТГ'</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -10543,11 +10557,11 @@
         <v>668</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="E217" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-30',5,'Ввод КСЗ 500 2АТГ','КСЗ 500 2АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-30','5','Ввод КСЗ 500 2АТГ','КСЗ 500 2АТГ'</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -10561,11 +10575,11 @@
         <v>655</v>
       </c>
       <c r="D218" s="23" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="E218" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-31',5,'Вывод МЗ-1 3АТГ','МЗ-1 3АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-31','5','Вывод МЗ-1 3АТГ','МЗ-1 3АТГ'</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -10579,11 +10593,11 @@
         <v>669</v>
       </c>
       <c r="D219" s="23" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="E219" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-32',5,'Ввод МЗ-1 3АТГ','МЗ-1 3АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-32','5','Ввод МЗ-1 3АТГ','МЗ-1 3АТГ'</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -10597,11 +10611,11 @@
         <v>656</v>
       </c>
       <c r="D220" s="23" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="E220" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-33',5,'Вывод МЗ-2 3АТГ','МЗ-2 3АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-33','5','Вывод МЗ-2 3АТГ','МЗ-2 3АТГ'</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -10615,11 +10629,11 @@
         <v>670</v>
       </c>
       <c r="D221" s="23" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="E221" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-34',5,'Ввод МЗ-2 3АТГ','МЗ-2 3АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-34','5','Ввод МЗ-2 3АТГ','МЗ-2 3АТГ'</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -10633,11 +10647,11 @@
         <v>657</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="E222" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-35',5,'Вывод КСЗ 500 3АТГ','КСЗ 500 3АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-35','5','Вывод КСЗ 500 3АТГ','КСЗ 500 3АТГ'</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -10651,11 +10665,11 @@
         <v>671</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="E223" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-36',5,'Ввод КСЗ 500 3АТГ','КСЗ 500 3АТГ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-36','5','Ввод КСЗ 500 3АТГ','КСЗ 500 3АТГ'</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -10669,11 +10683,11 @@
         <v>658</v>
       </c>
       <c r="D224" s="23" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="E224" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-37',5,'Вывод МЗ-1 4Т','МЗ-1 4Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-37','5','Вывод МЗ-1 4Т','МЗ-1 4Т'</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -10687,11 +10701,11 @@
         <v>672</v>
       </c>
       <c r="D225" s="23" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="E225" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-38',5,'Ввод МЗ-1 4Т','МЗ-1 4Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-38','5','Ввод МЗ-1 4Т','МЗ-1 4Т'</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -10705,11 +10719,11 @@
         <v>659</v>
       </c>
       <c r="D226" s="23" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="E226" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-39',5,'Вывод МЗ-2 4Т','МЗ-2 4Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-39','5','Вывод МЗ-2 4Т','МЗ-2 4Т'</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -10723,11 +10737,11 @@
         <v>673</v>
       </c>
       <c r="D227" s="23" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="E227" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-40',5,'Ввод МЗ-2 4Т','МЗ-2 4Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-40','5','Ввод МЗ-2 4Т','МЗ-2 4Т'</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -10741,11 +10755,11 @@
         <v>660</v>
       </c>
       <c r="D228" s="23" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E228" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-41',5,'Вывод МЗ-1 5АТ','МЗ-1 5АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-41','5','Вывод МЗ-1 5АТ','МЗ-1 5АТ'</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -10759,11 +10773,11 @@
         <v>674</v>
       </c>
       <c r="D229" s="23" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E229" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-42',5,'Ввод МЗ-1 5АТ','МЗ-1 5АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-42','5','Ввод МЗ-1 5АТ','МЗ-1 5АТ'</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -10777,11 +10791,11 @@
         <v>661</v>
       </c>
       <c r="D230" s="23" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="E230" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-43',5,'Вывод МЗ-2 5АТ','МЗ-2 5АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-43','5','Вывод МЗ-2 5АТ','МЗ-2 5АТ'</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -10795,11 +10809,11 @@
         <v>675</v>
       </c>
       <c r="D231" s="23" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="E231" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-44',5,'Ввод МЗ-2 5АТ','МЗ-2 5АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-44','5','Ввод МЗ-2 5АТ','МЗ-2 5АТ'</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -10813,11 +10827,11 @@
         <v>662</v>
       </c>
       <c r="D232" s="23" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="E232" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-45',5,'Вывод МЗ-1 6АТ','МЗ-1 6АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-45','5','Вывод МЗ-1 6АТ','МЗ-1 6АТ'</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -10831,11 +10845,11 @@
         <v>676</v>
       </c>
       <c r="D233" s="23" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="E233" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-46',5,'Ввод МЗ-1 6АТ','МЗ-1 6АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-46','5','Ввод МЗ-1 6АТ','МЗ-1 6АТ'</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -10849,11 +10863,11 @@
         <v>663</v>
       </c>
       <c r="D234" s="23" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="E234" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-47',5,'Вывод МЗ-2 6АТ','МЗ-2 6АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-47','5','Вывод МЗ-2 6АТ','МЗ-2 6АТ'</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -10867,11 +10881,11 @@
         <v>677</v>
       </c>
       <c r="D235" s="23" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="E235" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-48',5,'Ввод МЗ-2 6АТ','МЗ-2 6АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-48','5','Ввод МЗ-2 6АТ','МЗ-2 6АТ'</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -10885,11 +10899,11 @@
         <v>798</v>
       </c>
       <c r="D236" s="23" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E236" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-49',5,'Вывод ДЗП-220 5,6АТ','ДЗП 220 5,6АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-49','5','Вывод ДЗП-220 5,6АТ','ДЗП 220 5,6АТ'</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -10903,11 +10917,11 @@
         <v>799</v>
       </c>
       <c r="D237" s="23" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E237" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-50',5,'Ввод ДЗП-220 5,6АТ','ДЗП 220 5,6АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-50','5','Ввод ДЗП-220 5,6АТ','ДЗП 220 5,6АТ'</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -10921,11 +10935,11 @@
         <v>678</v>
       </c>
       <c r="D238" s="23" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="E238" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-51',5,'Вывод ДЗП-110 5,6 АТ','ДЗП 110 5,6АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-51','5','Вывод ДЗП-110 5,6 АТ','ДЗП 110 5,6АТ'</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -10939,11 +10953,11 @@
         <v>679</v>
       </c>
       <c r="D239" s="23" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="E239" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-52',5,'Ввод ДЗП-110 5,6 АТ','ДЗП 110 5,6АТ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '5-52','5','Ввод ДЗП-110 5,6 АТ','ДЗП 110 5,6АТ'</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -10951,17 +10965,17 @@
         <v>399</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C240" s="11" t="s">
         <v>491</v>
       </c>
       <c r="D240" s="23" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="E240" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-01',6,'Вывод ДЗШ-110 кВ','ДЗШ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-01','6.1','Вывод ДЗШ-110 кВ','ДЗШ-110кВ'</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -10969,17 +10983,17 @@
         <v>400</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C241" s="11" t="s">
         <v>492</v>
       </c>
       <c r="D241" s="23" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="E241" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-02',6,'Ввод ДЗШ-110 кВ ','ДЗШ-110кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-02','6.1','Ввод ДЗШ-110 кВ ','ДЗШ-110кВ'</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -10987,17 +11001,17 @@
         <v>401</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C242" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D242" s="23" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="E242" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-03',6,'Вывод ДФЗ ВЛ-110 кВ Водозабор-1 (ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Водозабор-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-03','6.1','Вывод ДФЗ ВЛ-110 кВ Водозабор-1 (ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Водозабор-1'</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -11005,17 +11019,17 @@
         <v>402</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C243" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D243" s="23" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="E243" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-04',6,'Ввод ДФЗ ВЛ-110 кВ Водозабор-1 (ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Водозабор-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-04','6.1','Ввод ДФЗ ВЛ-110 кВ Водозабор-1 (ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Водозабор-1'</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -11023,17 +11037,17 @@
         <v>403</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C244" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D244" s="23" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="E244" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-05',6,'Вывод ДФЗ ВЛ-110 кВ Водозабор-2 (ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Водозабор-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-05','6.1','Вывод ДФЗ ВЛ-110 кВ Водозабор-2 (ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Водозабор-2'</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -11041,17 +11055,17 @@
         <v>404</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C245" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D245" s="23" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="E245" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-06',6,'Ввод ДФЗ ВЛ-110 кВ Водозабор-2 (ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Водозабор-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-06','6.1','Ввод ДФЗ ВЛ-110 кВ Водозабор-2 (ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Водозабор-2'</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -11059,17 +11073,17 @@
         <v>405</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C246" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D246" s="23" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E246" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-07',6,'Вывод ДФЗ ВЛ-110 кВ Каучук (ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Каучук'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-07','6.1','Вывод ДФЗ ВЛ-110 кВ Каучук (ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Каучук'</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -11077,17 +11091,17 @@
         <v>406</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C247" s="11" t="s">
         <v>63</v>
       </c>
       <c r="D247" s="23" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E247" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-08',6,'Ввод ДФЗ ВЛ-110 кВ Каучук (ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Каучук'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-08','6.1','Ввод ДФЗ ВЛ-110 кВ Каучук (ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Каучук'</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -11095,17 +11109,17 @@
         <v>407</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C248" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D248" s="23" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="E248" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-09',6,'Вывод ДФЗ ВЛ-110 кВ ЧаТЭЦ (ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ ЧаТЭЦ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-09','6.1','Вывод ДФЗ ВЛ-110 кВ ЧаТЭЦ (ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ ЧаТЭЦ'</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -11113,17 +11127,17 @@
         <v>408</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C249" s="11" t="s">
         <v>65</v>
       </c>
       <c r="D249" s="23" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="E249" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-10',6,'Ввод ДФЗ ВЛ-110 кВ ЧаТЭЦ (ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ ЧаТЭЦ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-10','6.1','Ввод ДФЗ ВЛ-110 кВ ЧаТЭЦ (ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ ЧаТЭЦ'</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11131,17 +11145,17 @@
         <v>409</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C250" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D250" s="23" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E250" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-11',6,'Вывод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» отключена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Березовка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-11','6.1','Вывод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» отключена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Березовка'</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11149,17 +11163,17 @@
         <v>410</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C251" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D251" s="23" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E251" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-12',6,'Ввод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» отключена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Березовка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-12','6.1','Ввод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» отключена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Березовка'</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11167,17 +11181,17 @@
         <v>411</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C252" s="11" t="s">
         <v>68</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E252" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-13',6,'Вывод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» включена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Березовка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-13','6.1','Вывод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» включена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Березовка'</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11185,17 +11199,17 @@
         <v>412</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C253" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E253" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-14',6,'Ввод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» включена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Березовка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-14','6.1','Ввод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» включена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Березовка'</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11203,17 +11217,17 @@
         <v>413</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C254" s="11" t="s">
         <v>70</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="E254" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-15',6,'Вывод ДФЗ ВЛ-110 кВ Дубовая (на ПС «Дубовая» отключена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Дубовая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-15','6.1','Вывод ДФЗ ВЛ-110 кВ Дубовая (на ПС «Дубовая» отключена ремонтная перемычка, ВЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Дубовая'</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11221,17 +11235,17 @@
         <v>414</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C255" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="E255" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-16',6,'Ввод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» отключена ремонтная перемычка, BЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Дубовая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-16','6.1','Ввод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» отключена ремонтная перемычка, BЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Дубовая'</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11239,17 +11253,17 @@
         <v>415</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C256" s="11" t="s">
         <v>249</v>
       </c>
       <c r="D256" s="23" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="E256" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-17',6,'Вывод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» включена ремонтная перемычка, BЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Дубовая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-17','6.1','Вывод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» включена ремонтная перемычка, BЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Дубовая'</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11257,17 +11271,17 @@
         <v>416</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C257" s="11" t="s">
         <v>250</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="E257" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-18',6,'Ввод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» включена ремонтная перемычка, BЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Дубовая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-18','6.1','Ввод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» включена ремонтная перемычка, BЛ-110 кВ питается через свой В)','ДФЗ ВЛ-110 кВ Дубовая'</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -11275,17 +11289,17 @@
         <v>417</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C258" s="11" t="s">
         <v>435</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="E258" s="1" t="str">
-        <f t="shared" ref="E258:E321" si="4">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A258,"',",B258,",'",C258,"','",D258,"'")</f>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-19',6,'Вывод ДФЗ ВЛ-110 кВ Водозабор-1 (ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Водозабор-1'</v>
+        <f t="shared" ref="E258:E321" si="4">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A258,"','",B258,"','",C258,"','",D258,"'")</f>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-19','6.1','Вывод ДФЗ ВЛ-110 кВ Водозабор-1 (ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Водозабор-1'</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -11293,17 +11307,17 @@
         <v>418</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C259" s="11" t="s">
         <v>436</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="E259" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-20',6,'Ввод ДФЗ ВЛ-110 кВ Водозабор-1 (ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Водозабор-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-20','6.1','Ввод ДФЗ ВЛ-110 кВ Водозабор-1 (ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Водозабор-1'</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -11311,17 +11325,17 @@
         <v>419</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C260" s="11" t="s">
         <v>437</v>
       </c>
       <c r="D260" s="23" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="E260" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-21',6,'Вывод ДФЗ ВЛ-110 кВ Водозабор-2 (ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Водозабор-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-21','6.1','Вывод ДФЗ ВЛ-110 кВ Водозабор-2 (ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Водозабор-2'</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -11329,17 +11343,17 @@
         <v>420</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C261" s="11" t="s">
         <v>438</v>
       </c>
       <c r="D261" s="23" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="E261" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-22',6,'Ввод ДФЗ ВЛ-110 кВ Водозабор-2 (ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Водозабор-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-22','6.1','Ввод ДФЗ ВЛ-110 кВ Водозабор-2 (ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Водозабор-2'</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -11347,17 +11361,17 @@
         <v>421</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C262" s="11" t="s">
         <v>439</v>
       </c>
       <c r="D262" s="23" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E262" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-23',6,'Вывод ДФЗ ВЛ-110 кВ Каучук (ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Каучук'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-23','6.1','Вывод ДФЗ ВЛ-110 кВ Каучук (ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Каучук'</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -11365,17 +11379,17 @@
         <v>422</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C263" s="11" t="s">
         <v>440</v>
       </c>
       <c r="D263" s="23" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E263" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-24',6,'Ввод ДФЗ ВЛ-110 кВ Каучук (ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Каучук'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-24','6.1','Ввод ДФЗ ВЛ-110 кВ Каучук (ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Каучук'</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -11383,17 +11397,17 @@
         <v>423</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C264" s="11" t="s">
         <v>441</v>
       </c>
       <c r="D264" s="23" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="E264" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-25',6,'Вывод ДФЗ ВЛ-110 кВ ЧаТЭЦ (ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ ЧаТЭЦ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-25','6.1','Вывод ДФЗ ВЛ-110 кВ ЧаТЭЦ (ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ ЧаТЭЦ'</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -11401,17 +11415,17 @@
         <v>424</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C265" s="11" t="s">
         <v>442</v>
       </c>
       <c r="D265" s="23" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="E265" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-26',6,'Ввод ДФЗ ВЛ-110 кВ ЧаТЭЦ (ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ ЧаТЭЦ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-26','6.1','Ввод ДФЗ ВЛ-110 кВ ЧаТЭЦ (ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ ЧаТЭЦ'</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11419,17 +11433,17 @@
         <v>425</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C266" s="11" t="s">
         <v>443</v>
       </c>
       <c r="D266" s="23" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E266" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-27',6,'Вывод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» отключена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Березовка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-27','6.1','Вывод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» отключена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Березовка'</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11437,17 +11451,17 @@
         <v>426</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C267" s="11" t="s">
         <v>444</v>
       </c>
       <c r="D267" s="23" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E267" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-28',6,'Ввод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» отключена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Березовка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-28','6.1','Ввод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» отключена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Березовка'</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11455,17 +11469,17 @@
         <v>427</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C268" s="11" t="s">
         <v>445</v>
       </c>
       <c r="D268" s="23" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E268" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-29',6,'Вывод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» включена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Березовка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-29','6.1','Вывод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» включена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Березовка'</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11473,17 +11487,17 @@
         <v>428</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C269" s="11" t="s">
         <v>446</v>
       </c>
       <c r="D269" s="23" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E269" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-30',6,'Ввод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» включена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Березовка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-30','6.1','Ввод ДФЗ ВЛ-110 кВ Берёзовка (на ПС «Берёзовка» включена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Березовка'</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11491,17 +11505,17 @@
         <v>429</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C270" s="11" t="s">
         <v>447</v>
       </c>
       <c r="D270" s="23" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="E270" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-31',6,'Вывод ДФЗ ВЛ-110 кВ Дубовая (на ПС «Дубовая» отключена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Дубовая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-31','6.1','Вывод ДФЗ ВЛ-110 кВ Дубовая (на ПС «Дубовая» отключена ремонтная перемычка, ВЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Дубовая'</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11509,17 +11523,17 @@
         <v>430</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C271" s="11" t="s">
         <v>448</v>
       </c>
       <c r="D271" s="23" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="E271" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-32',6,'Ввод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» отключена ремонтная перемычка, BЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Дубовая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-32','6.1','Ввод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» отключена ремонтная перемычка, BЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Дубовая'</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11527,17 +11541,17 @@
         <v>431</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C272" s="11" t="s">
         <v>449</v>
       </c>
       <c r="D272" s="23" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="E272" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-33',6,'Вывод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» включена ремонтная перемычка, BЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Дубовая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-33','6.1','Вывод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» включена ремонтная перемычка, BЛ-110 кВ питается через ОВ-110кВ)','ДФЗ ВЛ-110 кВ Дубовая'</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11545,17 +11559,17 @@
         <v>432</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="C273" s="11" t="s">
         <v>450</v>
       </c>
       <c r="D273" s="23" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="E273" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-34',6,'Ввод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» включена ремонтная перемычка, BЛ-110 кВ питается черезОВ-110кВ)','ДФЗ ВЛ-110 кВ Дубовая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.1-34','6.1','Ввод ДФЗ BЛ-110 кВ Дубовая (на ПС «Дубовая» включена ремонтная перемычка, BЛ-110 кВ питается черезОВ-110кВ)','ДФЗ ВЛ-110 кВ Дубовая'</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -11563,17 +11577,17 @@
         <v>433</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C274" s="11" t="s">
         <v>493</v>
       </c>
       <c r="D274" s="23" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="E274" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-01',7,'Вывод ДЗШ-220 кВ ','ДЗШ-220 кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-01','6.2','Вывод ДЗШ-220 кВ ','ДЗШ-220 кВ'</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -11581,17 +11595,17 @@
         <v>434</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C275" s="11" t="s">
         <v>494</v>
       </c>
       <c r="D275" s="23" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="E275" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-02',7,'Ввод ДЗШ-220 кВ ','ДЗШ-220 кВ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-02','6.2','Ввод ДЗШ-220 кВ ','ДЗШ-220 кВ'</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -11599,17 +11613,17 @@
         <v>453</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C276" s="11" t="s">
         <v>251</v>
       </c>
       <c r="D276" s="23" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="E276" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-03',7,'Вывод ДФЗ BЛ-220 кВ Иж-1 (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Ижевск-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-03','6.2','Вывод ДФЗ BЛ-220 кВ Иж-1 (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Ижевск-1'</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -11617,17 +11631,17 @@
         <v>454</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C277" s="11" t="s">
         <v>252</v>
       </c>
       <c r="D277" s="23" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="E277" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-04',7,'Ввод ДФЗ BЛ-220 кВ Иж-1 (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Ижевск-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-04','6.2','Ввод ДФЗ BЛ-220 кВ Иж-1 (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Ижевск-1'</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -11635,17 +11649,17 @@
         <v>455</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C278" s="11" t="s">
         <v>255</v>
       </c>
       <c r="D278" s="23" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="E278" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-05',7,'Вывод ДФЗ BЛ-220 кВ Иж-2 (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Ижевск-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-05','6.2','Вывод ДФЗ BЛ-220 кВ Иж-2 (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Ижевск-2'</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -11653,17 +11667,17 @@
         <v>456</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C279" s="11" t="s">
         <v>256</v>
       </c>
       <c r="D279" s="23" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="E279" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-06',7,'Ввод ДФЗ BЛ-220 кВ Иж-2 (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Ижевск-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-06','6.2','Ввод ДФЗ BЛ-220 кВ Иж-2 (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Ижевск-2'</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -11671,17 +11685,17 @@
         <v>457</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C280" s="11" t="s">
         <v>259</v>
       </c>
       <c r="D280" s="23" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E280" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-07',7,'Вывод ДФЗ BЛ-220 кВ Каучук-1 (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Каучук-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-07','6.2','Вывод ДФЗ BЛ-220 кВ Каучук-1 (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Каучук-1'</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -11689,17 +11703,17 @@
         <v>458</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C281" s="11" t="s">
         <v>260</v>
       </c>
       <c r="D281" s="23" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E281" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-08',7,'Ввод ДФЗ BЛ-220 кВ Каучук-1 (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Каучук-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-08','6.2','Ввод ДФЗ BЛ-220 кВ Каучук-1 (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Каучук-1'</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -11707,17 +11721,17 @@
         <v>459</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C282" s="11" t="s">
         <v>263</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="E282" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-09',7,'Вывод ДФЗ BЛ-220 кВ Каучук-2 (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Каучук-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-09','6.2','Вывод ДФЗ BЛ-220 кВ Каучук-2 (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Каучук-2'</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -11725,17 +11739,17 @@
         <v>460</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C283" s="11" t="s">
         <v>264</v>
       </c>
       <c r="D283" s="23" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="E283" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-10',7,'Ввод ДФЗ BЛ-220 кВ Каучук-2 (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Каучук-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-10','6.2','Ввод ДФЗ BЛ-220 кВ Каучук-2 (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Каучук-2'</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -11743,17 +11757,17 @@
         <v>461</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C284" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D284" s="23" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="E284" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-11',7,'Вывод ДФЗ BЛ-220 кВ Светлая (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Светлая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-11','6.2','Вывод ДФЗ BЛ-220 кВ Светлая (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Светлая'</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -11761,17 +11775,17 @@
         <v>462</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C285" s="11" t="s">
         <v>268</v>
       </c>
       <c r="D285" s="23" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="E285" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-12',7,'Ввод ДФЗ BЛ-220 кВ Светлая (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Светлая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-12','6.2','Ввод ДФЗ BЛ-220 кВ Светлая (ВЛ-220 кВ питается через свой В)','ДФЗ ВЛ-220 кВ Светлая'</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -11779,17 +11793,17 @@
         <v>463</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C286" s="11" t="s">
         <v>253</v>
       </c>
       <c r="D286" s="23" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="E286" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-13',7,'Вывод ДФЗ BЛ-220 кВ Иж-1 (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Ижевск-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-13','6.2','Вывод ДФЗ BЛ-220 кВ Иж-1 (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Ижевск-1'</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -11797,17 +11811,17 @@
         <v>464</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C287" s="11" t="s">
         <v>254</v>
       </c>
       <c r="D287" s="23" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="E287" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-14',7,'Ввод ДФЗ BЛ-220 кВ Иж-1 (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Ижевск-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-14','6.2','Ввод ДФЗ BЛ-220 кВ Иж-1 (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Ижевск-1'</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -11815,17 +11829,17 @@
         <v>465</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C288" s="11" t="s">
         <v>257</v>
       </c>
       <c r="D288" s="23" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="E288" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-15',7,'Вывод ДФЗ BЛ-220 кВ Иж-2 (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Ижевск-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-15','6.2','Вывод ДФЗ BЛ-220 кВ Иж-2 (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Ижевск-2'</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -11833,17 +11847,17 @@
         <v>466</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C289" s="11" t="s">
         <v>258</v>
       </c>
       <c r="D289" s="23" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="E289" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-16',7,'Ввод ДФЗ BЛ-220 кВ Иж-2 (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Ижевск-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-16','6.2','Ввод ДФЗ BЛ-220 кВ Иж-2 (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Ижевск-2'</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -11851,17 +11865,17 @@
         <v>467</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>261</v>
       </c>
       <c r="D290" s="23" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E290" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-17',7,'Вывод ДФЗ BЛ-220 кВ Каучук-1 (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Каучук-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-17','6.2','Вывод ДФЗ BЛ-220 кВ Каучук-1 (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Каучук-1'</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -11869,17 +11883,17 @@
         <v>468</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C291" s="11" t="s">
         <v>262</v>
       </c>
       <c r="D291" s="23" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E291" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-18',7,'Ввод ДФЗ BЛ-220 кВ Каучук-1 (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Каучук-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-18','6.2','Ввод ДФЗ BЛ-220 кВ Каучук-1 (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Каучук-1'</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -11887,17 +11901,17 @@
         <v>469</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C292" s="11" t="s">
         <v>265</v>
       </c>
       <c r="D292" s="23" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="E292" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-19',7,'Вывод ДФЗ BЛ-220 кВ Каучук-2 (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Каучук-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-19','6.2','Вывод ДФЗ BЛ-220 кВ Каучук-2 (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Каучук-2'</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -11905,17 +11919,17 @@
         <v>470</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C293" s="11" t="s">
         <v>266</v>
       </c>
       <c r="D293" s="23" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="E293" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-20',7,'Ввод ДФЗ BЛ-220 кВ Каучук-2 (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Каучук-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-20','6.2','Ввод ДФЗ BЛ-220 кВ Каучук-2 (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Каучук-2'</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -11923,17 +11937,17 @@
         <v>471</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C294" s="11" t="s">
         <v>269</v>
       </c>
       <c r="D294" s="23" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="E294" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-21',7,'Вывод ДФЗ BЛ-220 кВ Светлая (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Светлая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-21','6.2','Вывод ДФЗ BЛ-220 кВ Светлая (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Светлая'</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -11941,17 +11955,17 @@
         <v>472</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C295" s="11" t="s">
         <v>270</v>
       </c>
       <c r="D295" s="23" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="E295" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-22',7,'Ввод ДФЗ BЛ-220 кВ Светлая (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Светлая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-22','6.2','Ввод ДФЗ BЛ-220 кВ Светлая (ВЛ-220 кВ питается через ОВ-220 кВ)','ДФЗ ВЛ-220 кВ Светлая'</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -11959,17 +11973,17 @@
         <v>473</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C296" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D296" s="23" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="E296" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-23',7,'Вывод АПЧ','АПЧ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-23','6.2','Вывод АПЧ','АПЧ'</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -11977,17 +11991,17 @@
         <v>474</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C297" s="11" t="s">
         <v>72</v>
       </c>
       <c r="D297" s="23" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="E297" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-24',7,'Ввод АПЧ','АПЧ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-24','6.2','Ввод АПЧ','АПЧ'</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -11995,17 +12009,17 @@
         <v>475</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C298" s="12" t="s">
         <v>297</v>
       </c>
       <c r="D298" s="23" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="E298" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-25',7,'Вывод АОПО (МКПА-1) ВЛ-220 кВ Ижевск-1,2 (для смены уставок)','АОПО (МКПА-1) ВЛ-220 кВ Ижевск-1,2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-25','6.2','Вывод АОПО (МКПА-1) ВЛ-220 кВ Ижевск-1,2 (для смены уставок)','АОПО (МКПА-1) ВЛ-220 кВ Ижевск-1,2'</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -12013,17 +12027,17 @@
         <v>476</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C299" s="12" t="s">
         <v>298</v>
       </c>
       <c r="D299" s="23" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="E299" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-26',7,'Ввод АОПО (МКПА-1) ВЛ-220 кВ Ижевск-1,2 (для смены уставок)','АОПО (МКПА-1) ВЛ-220 кВ Ижевск-1,2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-26','6.2','Ввод АОПО (МКПА-1) ВЛ-220 кВ Ижевск-1,2 (для смены уставок)','АОПО (МКПА-1) ВЛ-220 кВ Ижевск-1,2'</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -12031,17 +12045,17 @@
         <v>477</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C300" s="12" t="s">
         <v>299</v>
       </c>
       <c r="D300" s="23" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="E300" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-27',7,'Вывод АОПО (МКПА-2) ВЛ-220 кВ Ижевск-1,2 (для смены уставок)','АОПО (МКПА-2) ВЛ-220 кВ Ижевск-1,2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-27','6.2','Вывод АОПО (МКПА-2) ВЛ-220 кВ Ижевск-1,2 (для смены уставок)','АОПО (МКПА-2) ВЛ-220 кВ Ижевск-1,2'</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -12049,17 +12063,17 @@
         <v>478</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C301" s="12" t="s">
         <v>300</v>
       </c>
       <c r="D301" s="23" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="E301" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-28',7,'Ввод АОПО (МКПА-2) ВЛ-220 кВ Ижевск-1,2 (для смены уставок)','АОПО (МКПА-2) ВЛ-220 кВ Ижевск-1,2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-28','6.2','Ввод АОПО (МКПА-2) ВЛ-220 кВ Ижевск-1,2 (для смены уставок)','АОПО (МКПА-2) ВЛ-220 кВ Ижевск-1,2'</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -12067,17 +12081,17 @@
         <v>479</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C302" s="13" t="s">
         <v>990</v>
       </c>
       <c r="D302" s="23" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="E302" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-29',7,'Вывод АОПО (МКПА-1) ВЛ 220 Ижевск-1,2 (для проведения ТО)','АОПО (МКПА-1) ВЛ-220 кВ Ижевск-1,2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-29','6.2','Вывод АОПО (МКПА-1) ВЛ 220 Ижевск-1,2 (для проведения ТО)','АОПО (МКПА-1) ВЛ-220 кВ Ижевск-1,2'</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -12085,17 +12099,17 @@
         <v>480</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C303" s="14" t="s">
         <v>991</v>
       </c>
       <c r="D303" s="23" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="E303" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-30',7,'Ввод АОПО (МКПА-1) ВЛ 220 Ижевск-1,2 (после проведения ТО)','АОПО (МКПА-1) ВЛ-220 кВ Ижевск-1,2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-30','6.2','Ввод АОПО (МКПА-1) ВЛ 220 Ижевск-1,2 (после проведения ТО)','АОПО (МКПА-1) ВЛ-220 кВ Ижевск-1,2'</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -12103,17 +12117,17 @@
         <v>481</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C304" s="14" t="s">
         <v>992</v>
       </c>
       <c r="D304" s="23" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="E304" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-31',7,'Вывод АОПО (МКПА-2) ВЛ 220 Ижевск-1,2 (для проведения ТО)','АОПО (МКПА-2) ВЛ-220 кВ Ижевск-1,2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-31','6.2','Вывод АОПО (МКПА-2) ВЛ 220 Ижевск-1,2 (для проведения ТО)','АОПО (МКПА-2) ВЛ-220 кВ Ижевск-1,2'</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -12121,17 +12135,17 @@
         <v>482</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="C305" s="12" t="s">
         <v>307</v>
       </c>
       <c r="D305" s="23" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="E305" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-32',7,'Ввод АОПО (МКПА-2) ВЛ 220 Ижевск-1,2 (после проведения ТО)','АОПО (МКПА-2) ВЛ-220 кВ Ижевск-1,2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.2-32','6.2','Ввод АОПО (МКПА-2) ВЛ 220 Ижевск-1,2 (после проведения ТО)','АОПО (МКПА-2) ВЛ-220 кВ Ижевск-1,2'</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -12139,17 +12153,17 @@
         <v>483</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C306" s="11" t="s">
         <v>642</v>
       </c>
       <c r="D306" s="23" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="E306" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-01',8,'Вывод ДЗШ 1СШ-500 кВ КРУЭ 1 комплект','ДЗШ 1СШ-500 кВ КРУЭ 1комплект'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-01','6.3','Вывод ДЗШ 1СШ-500 кВ КРУЭ 1 комплект','ДЗШ 1СШ-500 кВ КРУЭ 1комплект'</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -12157,17 +12171,17 @@
         <v>484</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C307" s="11" t="s">
         <v>643</v>
       </c>
       <c r="D307" s="23" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="E307" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-02',8,'Ввод ДЗШ 1СШ-500 кВ КРУЭ 1 комплект','ДЗШ 1СШ-500 кВ КРУЭ 1комплект'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-02','6.3','Ввод ДЗШ 1СШ-500 кВ КРУЭ 1 комплект','ДЗШ 1СШ-500 кВ КРУЭ 1комплект'</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -12175,17 +12189,17 @@
         <v>485</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C308" s="11" t="s">
         <v>644</v>
       </c>
       <c r="D308" s="23" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="E308" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-03',8,'Вывод ДЗШ 2СШ-500 кВ КРУЭ 1 комплект','ДЗШ 2СШ-500 кВ КРУЭ 1комплект'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-03','6.3','Вывод ДЗШ 2СШ-500 кВ КРУЭ 1 комплект','ДЗШ 2СШ-500 кВ КРУЭ 1комплект'</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -12193,17 +12207,17 @@
         <v>486</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C309" s="11" t="s">
         <v>645</v>
       </c>
       <c r="D309" s="23" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="E309" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-04',8,'Ввод ДЗШ 2СШ-500 кВ КРУЭ 1 комплект','ДЗШ 2СШ-500 кВ КРУЭ 1комплект'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-04','6.3','Ввод ДЗШ 2СШ-500 кВ КРУЭ 1 комплект','ДЗШ 2СШ-500 кВ КРУЭ 1комплект'</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -12211,17 +12225,17 @@
         <v>487</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C310" s="11" t="s">
         <v>646</v>
       </c>
       <c r="D310" s="23" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="E310" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-05',8,'Вывод ДЗШ 1СШ-500 кВ КРУЭ 2 комплект','ДЗШ 1СШ-500 кВ КРУЭ 2комплект'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-05','6.3','Вывод ДЗШ 1СШ-500 кВ КРУЭ 2 комплект','ДЗШ 1СШ-500 кВ КРУЭ 2комплект'</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -12229,17 +12243,17 @@
         <v>488</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C311" s="11" t="s">
         <v>647</v>
       </c>
       <c r="D311" s="23" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="E311" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-06',8,'Ввод ДЗШ 1СШ-500 кВ КРУЭ 2 комплект','ДЗШ 1СШ-500 кВ КРУЭ 2комплект'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-06','6.3','Ввод ДЗШ 1СШ-500 кВ КРУЭ 2 комплект','ДЗШ 1СШ-500 кВ КРУЭ 2комплект'</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -12247,17 +12261,17 @@
         <v>489</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C312" s="11" t="s">
         <v>648</v>
       </c>
       <c r="D312" s="23" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="E312" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-07',8,'Вывод ДЗШ 2СШ-500 кВ КРУЭ 2 комплект','ДЗШ 2СШ-500 кВ КРУЭ 2комплект'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-07','6.3','Вывод ДЗШ 2СШ-500 кВ КРУЭ 2 комплект','ДЗШ 2СШ-500 кВ КРУЭ 2комплект'</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -12265,17 +12279,17 @@
         <v>490</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C313" s="11" t="s">
         <v>649</v>
       </c>
       <c r="D313" s="23" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="E313" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-08',8,'Ввод ДЗШ 2СШ-500 кВ КРУЭ 2 комплект','ДЗШ 2СШ-500 кВ КРУЭ 2комплект'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-08','6.3','Ввод ДЗШ 2СШ-500 кВ КРУЭ 2 комплект','ДЗШ 2СШ-500 кВ КРУЭ 2комплект'</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -12283,17 +12297,17 @@
         <v>530</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C314" s="11" t="s">
         <v>636</v>
       </c>
       <c r="D314" s="23" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E314" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-09',8,'Вывод ДЗОШ ВЛ-500 кВ Емелино','ДЗОШ ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-09','6.3','Вывод ДЗОШ ВЛ-500 кВ Емелино','ДЗОШ ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -12301,17 +12315,17 @@
         <v>531</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C315" s="11" t="s">
         <v>637</v>
       </c>
       <c r="D315" s="23" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E315" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-10',8,'Ввод ДЗОШ ВЛ-500 кВ Емелино','ДЗОШ ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-10','6.3','Ввод ДЗОШ ВЛ-500 кВ Емелино','ДЗОШ ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -12319,17 +12333,17 @@
         <v>532</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>638</v>
       </c>
       <c r="D316" s="23" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="E316" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-11',8,'Вывод ДЗОШ ВЛ-500 кВ КаГРЭС','ДЗОШ ВЛ-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-11','6.3','Вывод ДЗОШ ВЛ-500 кВ КаГРЭС','ДЗОШ ВЛ-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -12337,17 +12351,17 @@
         <v>533</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C317" s="11" t="s">
         <v>639</v>
       </c>
       <c r="D317" s="23" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="E317" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-12',8,'Ввод ДЗОШ ВЛ-500 кВ КаГРЭС','ДЗОШ ВЛ-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-12','6.3','Ввод ДЗОШ ВЛ-500 кВ КаГРЭС','ДЗОШ ВЛ-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -12355,17 +12369,17 @@
         <v>534</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C318" s="11" t="s">
         <v>640</v>
       </c>
       <c r="D318" s="23" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="E318" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-13',8,'Вывод ДЗОШ ВЛ-500 кВ Вятка','ДЗОШ ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-13','6.3','Вывод ДЗОШ ВЛ-500 кВ Вятка','ДЗОШ ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -12373,17 +12387,17 @@
         <v>535</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C319" s="11" t="s">
         <v>641</v>
       </c>
       <c r="D319" s="23" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="E319" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-14',8,'Ввод ДЗОШ ВЛ-500 кВ Вятка','ДЗОШ ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-14','6.3','Ввод ДЗОШ ВЛ-500 кВ Вятка','ДЗОШ ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -12391,17 +12405,17 @@
         <v>536</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C320" s="11" t="s">
         <v>498</v>
       </c>
       <c r="D320" s="23" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="E320" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-15',8,'Вывод РЗ 1к (ДФЗ) ВЛ-500 кВ Емелино','РЗ 1к (ДФЗ) ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-15','6.3','Вывод РЗ 1к (ДФЗ) ВЛ-500 кВ Емелино','РЗ 1к (ДФЗ) ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -12409,17 +12423,17 @@
         <v>537</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C321" s="11" t="s">
         <v>499</v>
       </c>
       <c r="D321" s="23" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="E321" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-16',8,'Ввод РЗ 1к (ДФЗ) ВЛ-500 кВ Емелино','РЗ 1к (ДФЗ) ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-16','6.3','Ввод РЗ 1к (ДФЗ) ВЛ-500 кВ Емелино','РЗ 1к (ДФЗ) ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -12427,17 +12441,17 @@
         <v>538</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C322" s="11" t="s">
         <v>500</v>
       </c>
       <c r="D322" s="23" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E322" s="1" t="str">
-        <f t="shared" ref="E322:E385" si="5">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A322,"',",B322,",'",C322,"','",D322,"'")</f>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-17',8,'Вывод РЗ 1к (ДФЗ) ВЛ-500 кВ КаГРЭС','РЗ 1к (ДФЗ) ВЛ-500 кВ Кармановская ГРЭС'</v>
+        <f t="shared" ref="E322:E385" si="5">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A322,"','",B322,"','",C322,"','",D322,"'")</f>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-17','6.3','Вывод РЗ 1к (ДФЗ) ВЛ-500 кВ КаГРЭС','РЗ 1к (ДФЗ) ВЛ-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -12445,17 +12459,17 @@
         <v>539</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C323" s="11" t="s">
         <v>501</v>
       </c>
       <c r="D323" s="23" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E323" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-18',8,'Ввод РЗ 1к (ДФЗ) ВЛ-500 кВ КаГРЭС','РЗ 1к (ДФЗ) ВЛ-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-18','6.3','Ввод РЗ 1к (ДФЗ) ВЛ-500 кВ КаГРЭС','РЗ 1к (ДФЗ) ВЛ-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -12463,17 +12477,17 @@
         <v>540</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C324" s="11" t="s">
         <v>502</v>
       </c>
       <c r="D324" s="23" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="E324" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-19',8,'Вывод РЗ 1к (ДФЗ) ВЛ-500 кВ Вятка','РЗ 1к (ДФЗ) ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-19','6.3','Вывод РЗ 1к (ДФЗ) ВЛ-500 кВ Вятка','РЗ 1к (ДФЗ) ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -12481,17 +12495,17 @@
         <v>541</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C325" s="11" t="s">
         <v>503</v>
       </c>
       <c r="D325" s="23" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="E325" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-20',8,'Ввод РЗ 1к (ДФЗ) ВЛ-500 кВ Вятка','РЗ 1к (ДФЗ) ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-20','6.3','Ввод РЗ 1к (ДФЗ) ВЛ-500 кВ Вятка','РЗ 1к (ДФЗ) ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -12499,17 +12513,17 @@
         <v>542</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C326" s="11" t="s">
         <v>612</v>
       </c>
       <c r="D326" s="23" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="E326" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-21',8,'Вывод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Емелино','РЗ 2к ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-21','6.3','Вывод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Емелино','РЗ 2к ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -12517,17 +12531,17 @@
         <v>543</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C327" s="11" t="s">
         <v>613</v>
       </c>
       <c r="D327" s="23" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="E327" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-22',8,'Ввод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Емелино','РЗ 2к ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-22','6.3','Ввод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Емелино','РЗ 2к ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -12535,17 +12549,17 @@
         <v>544</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C328" s="11" t="s">
         <v>614</v>
       </c>
       <c r="D328" s="23" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E328" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-23',8,'Вывод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Емелино','РЗ 3к ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-23','6.3','Вывод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Емелино','РЗ 3к ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -12553,17 +12567,17 @@
         <v>545</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C329" s="11" t="s">
         <v>615</v>
       </c>
       <c r="D329" s="23" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E329" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-24',8,'Ввод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Емелино','РЗ 3к ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-24','6.3','Ввод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Емелино','РЗ 3к ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -12571,17 +12585,17 @@
         <v>546</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C330" s="11" t="s">
         <v>616</v>
       </c>
       <c r="D330" s="23" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="E330" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-25',8,'Вывод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ КаГРЭС','РЗ 2к ВЛ-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-25','6.3','Вывод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ КаГРЭС','РЗ 2к ВЛ-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -12589,17 +12603,17 @@
         <v>547</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C331" s="11" t="s">
         <v>617</v>
       </c>
       <c r="D331" s="23" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="E331" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-26',8,'Ввод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ КаГРЭС','РЗ 2к ВЛ-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-26','6.3','Ввод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ КаГРЭС','РЗ 2к ВЛ-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -12607,17 +12621,17 @@
         <v>548</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C332" s="11" t="s">
         <v>618</v>
       </c>
       <c r="D332" s="23" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="E332" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-27',8,'Вывод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ КаГРЭС','РЗ 3к ВЛ-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-27','6.3','Вывод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ КаГРЭС','РЗ 3к ВЛ-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -12625,17 +12639,17 @@
         <v>549</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C333" s="11" t="s">
         <v>619</v>
       </c>
       <c r="D333" s="23" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="E333" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-28',8,'Ввод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ КаГРЭС','РЗ 3к ВЛ-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-28','6.3','Ввод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ КаГРЭС','РЗ 3к ВЛ-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -12643,17 +12657,17 @@
         <v>550</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C334" s="11" t="s">
         <v>620</v>
       </c>
       <c r="D334" s="23" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="E334" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-29',8,'Вывод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Вятка','РЗ 2к ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-29','6.3','Вывод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Вятка','РЗ 2к ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -12661,17 +12675,17 @@
         <v>551</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C335" s="11" t="s">
         <v>621</v>
       </c>
       <c r="D335" s="23" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="E335" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-30',8,'Ввод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Вятка','РЗ 2к ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-30','6.3','Ввод РЗ 2к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Вятка','РЗ 2к ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -12679,17 +12693,17 @@
         <v>552</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C336" s="11" t="s">
         <v>622</v>
       </c>
       <c r="D336" s="23" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="E336" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-31',8,'Вывод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Вятка','РЗ 3к ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-31','6.3','Вывод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Вятка','РЗ 3к ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -12697,17 +12711,17 @@
         <v>553</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C337" s="11" t="s">
         <v>623</v>
       </c>
       <c r="D337" s="23" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="E337" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-32',8,'Ввод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Вятка','РЗ 3к ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-32','6.3','Ввод РЗ 3к (ДЗ, ТНЗНП, МФО, ОАПВ) ВЛ-500 кВ Вятка','РЗ 3к ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -12715,17 +12729,17 @@
         <v>554</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C338" s="11" t="s">
         <v>624</v>
       </c>
       <c r="D338" s="23" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="E338" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-33',8,'Вывод защит реактора 1к ВЛ-500 кВ Емелино','Защиты реактора 1к ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-33','6.3','Вывод защит реактора 1к ВЛ-500 кВ Емелино','Защиты реактора 1к ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -12733,17 +12747,17 @@
         <v>555</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C339" s="11" t="s">
         <v>626</v>
       </c>
       <c r="D339" s="23" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="E339" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-34',8,'Ввод защит реактора 1к ВЛ-500 кВ Емелино','Защиты реактора 1к ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-34','6.3','Ввод защит реактора 1к ВЛ-500 кВ Емелино','Защиты реактора 1к ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -12751,17 +12765,17 @@
         <v>556</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C340" s="11" t="s">
         <v>625</v>
       </c>
       <c r="D340" s="23" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="E340" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-35',8,'Вывод защит реактора 2к ВЛ-500 кВ Емелино','Защиты реактора 2к ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-35','6.3','Вывод защит реактора 2к ВЛ-500 кВ Емелино','Защиты реактора 2к ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -12769,17 +12783,17 @@
         <v>557</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C341" s="11" t="s">
         <v>627</v>
       </c>
       <c r="D341" s="23" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="E341" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-36',8,'Ввод защит реактора 2к ВЛ-500 кВ Емелино','Защиты реактора 2к ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-36','6.3','Ввод защит реактора 2к ВЛ-500 кВ Емелино','Защиты реактора 2к ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -12787,17 +12801,17 @@
         <v>558</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C342" s="11" t="s">
         <v>628</v>
       </c>
       <c r="D342" s="23" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="E342" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-37',8,'Вывод защит реактора 1к ВЛ-500 кВ Вятка','Защиты реактора 1к ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-37','6.3','Вывод защит реактора 1к ВЛ-500 кВ Вятка','Защиты реактора 1к ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -12805,17 +12819,17 @@
         <v>559</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C343" s="11" t="s">
         <v>629</v>
       </c>
       <c r="D343" s="23" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="E343" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-38',8,'Ввод защит реактора 1к ВЛ-500 кВ Вятка','Защиты реактора 1к ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-38','6.3','Ввод защит реактора 1к ВЛ-500 кВ Вятка','Защиты реактора 1к ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -12823,17 +12837,17 @@
         <v>560</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C344" s="11" t="s">
         <v>630</v>
       </c>
       <c r="D344" s="23" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="E344" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-39',8,'Вывод защит реактора 2к ВЛ-500 кВ Вятка','Защиты реактора 2к ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-39','6.3','Вывод защит реактора 2к ВЛ-500 кВ Вятка','Защиты реактора 2к ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -12841,17 +12855,17 @@
         <v>561</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C345" s="11" t="s">
         <v>631</v>
       </c>
       <c r="D345" s="23" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="E345" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-40',8,'Ввод защит реактора 2к ВЛ-500 кВ Вятка','Защиты реактора 2к ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-40','6.3','Ввод защит реактора 2к ВЛ-500 кВ Вятка','Защиты реактора 2к ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -12859,17 +12873,17 @@
         <v>562</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>518</v>
       </c>
       <c r="D346" s="23" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="E346" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-41',8,'Вывод АУВ В-1-500 кВ Емелино','АУВ В-1-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-41','6.3','Вывод АУВ В-1-500 кВ Емелино','АУВ В-1-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -12877,17 +12891,17 @@
         <v>563</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C347" s="11" t="s">
         <v>519</v>
       </c>
       <c r="D347" s="23" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="E347" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-42',8,'Ввод АУВ В-1-500 кВ Емелино','АУВ В-1-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-42','6.3','Ввод АУВ В-1-500 кВ Емелино','АУВ В-1-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -12895,17 +12909,17 @@
         <v>564</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C348" s="11" t="s">
         <v>520</v>
       </c>
       <c r="D348" s="23" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="E348" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-43',8,'Вывод АУВ В-2-500 кВ Емелино','АУВ В-2-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-43','6.3','Вывод АУВ В-2-500 кВ Емелино','АУВ В-2-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -12913,17 +12927,17 @@
         <v>565</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C349" s="11" t="s">
         <v>521</v>
       </c>
       <c r="D349" s="23" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="E349" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-44',8,'Ввод АУВ В-2-500 кВ Емелино','АУВ В-2-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-44','6.3','Ввод АУВ В-2-500 кВ Емелино','АУВ В-2-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -12931,17 +12945,17 @@
         <v>566</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>522</v>
       </c>
       <c r="D350" s="23" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="E350" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-45',8,'Вывод АУВ В-1-500 кВ КаГРЭС','АУВ В-1-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-45','6.3','Вывод АУВ В-1-500 кВ КаГРЭС','АУВ В-1-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -12949,17 +12963,17 @@
         <v>567</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C351" s="11" t="s">
         <v>523</v>
       </c>
       <c r="D351" s="23" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="E351" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-46',8,'Ввод АУВ В-1-500 кВ КаГРЭС','АУВ В-1-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-46','6.3','Ввод АУВ В-1-500 кВ КаГРЭС','АУВ В-1-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -12967,17 +12981,17 @@
         <v>568</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C352" s="11" t="s">
         <v>524</v>
       </c>
       <c r="D352" s="23" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="E352" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-47',8,'Вывод АУВ В-2-500 кВ КаГРЭС','АУВ В-2-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-47','6.3','Вывод АУВ В-2-500 кВ КаГРЭС','АУВ В-2-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -12985,17 +12999,17 @@
         <v>569</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C353" s="11" t="s">
         <v>525</v>
       </c>
       <c r="D353" s="23" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="E353" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-48',8,'Ввод АУВ В-2-500 кВ КаГРЭС','АУВ В-2-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-48','6.3','Ввод АУВ В-2-500 кВ КаГРЭС','АУВ В-2-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -13003,17 +13017,17 @@
         <v>570</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C354" s="11" t="s">
         <v>526</v>
       </c>
       <c r="D354" s="23" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="E354" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-49',8,'Вывод АУВ В-1-500 кВ Вятка','АУВ В-1-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-49','6.3','Вывод АУВ В-1-500 кВ Вятка','АУВ В-1-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -13021,17 +13035,17 @@
         <v>571</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C355" s="11" t="s">
         <v>527</v>
       </c>
       <c r="D355" s="23" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="E355" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-50',8,'Ввод АУВ В-1-500 кВ Вятка','АУВ В-1-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-50','6.3','Ввод АУВ В-1-500 кВ Вятка','АУВ В-1-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -13039,17 +13053,17 @@
         <v>572</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C356" s="11" t="s">
         <v>528</v>
       </c>
       <c r="D356" s="23" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E356" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-51',8,'Вывод АУВ В-2-500 кВ Вятка','АУВ В-2-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-51','6.3','Вывод АУВ В-2-500 кВ Вятка','АУВ В-2-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -13057,17 +13071,17 @@
         <v>573</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>529</v>
       </c>
       <c r="D357" s="23" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E357" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-52',8,'Ввод АУВ В-2-500 кВ Вятка','АУВ В-2-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-52','6.3','Ввод АУВ В-2-500 кВ Вятка','АУВ В-2-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -13075,17 +13089,17 @@
         <v>574</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>632</v>
       </c>
       <c r="D358" s="23" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="E358" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-53',8,'Вывод АУВ В Реактора 500 кВ Емелино','АУВ В Реактора 500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-53','6.3','Вывод АУВ В Реактора 500 кВ Емелино','АУВ В Реактора 500 кВ Емелино'</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -13093,17 +13107,17 @@
         <v>575</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>633</v>
       </c>
       <c r="D359" s="23" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="E359" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-54',8,'Ввод АУВ В Реактора 500 кВ Емелино','АУВ В Реактора 500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-54','6.3','Ввод АУВ В Реактора 500 кВ Емелино','АУВ В Реактора 500 кВ Емелино'</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -13111,17 +13125,17 @@
         <v>714</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>634</v>
       </c>
       <c r="D360" s="23" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="E360" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-55',8,'Вывод АУВ В Реактора 500 кВ Вятка','АУВ В Реактора 500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-55','6.3','Вывод АУВ В Реактора 500 кВ Вятка','АУВ В Реактора 500 кВ Вятка'</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -13129,17 +13143,17 @@
         <v>715</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>635</v>
       </c>
       <c r="D361" s="23" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="E361" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-56',8,'Ввод АУВ В Реактора 500 кВ Вятка','АУВ В Реактора 500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-56','6.3','Ввод АУВ В Реактора 500 кВ Вятка','АУВ В Реактора 500 кВ Вятка'</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -13147,17 +13161,17 @@
         <v>716</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C362" s="12" t="s">
         <v>308</v>
       </c>
       <c r="D362" s="23" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="E362" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-57',8,'Вывод АОПО (МКПА-1) АТГ-2','АОПО (МКПА-1) АТГ-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-57','6.3','Вывод АОПО (МКПА-1) АТГ-2','АОПО (МКПА-1) АТГ-2'</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -13165,17 +13179,17 @@
         <v>717</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C363" s="12" t="s">
         <v>310</v>
       </c>
       <c r="D363" s="23" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="E363" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-58',8,'Ввод АОПО (МКПА-1) АТГ-2','АОПО (МКПА-1) АТГ-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-58','6.3','Ввод АОПО (МКПА-1) АТГ-2','АОПО (МКПА-1) АТГ-2'</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -13183,17 +13197,17 @@
         <v>718</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C364" s="12" t="s">
         <v>311</v>
       </c>
       <c r="D364" s="23" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="E364" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-59',8,'Вывод АОПО (МКПА-2) АТГ-2','АОПО (МКПА-2) АТГ-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-59','6.3','Вывод АОПО (МКПА-2) АТГ-2','АОПО (МКПА-2) АТГ-2'</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -13201,17 +13215,17 @@
         <v>719</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C365" s="12" t="s">
         <v>312</v>
       </c>
       <c r="D365" s="23" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="E365" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-60',8,'Ввод АОПО (МКПА-2) АТГ-2','АОПО (МКПА-2) АТГ-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-60','6.3','Ввод АОПО (МКПА-2) АТГ-2','АОПО (МКПА-2) АТГ-2'</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -13219,17 +13233,17 @@
         <v>720</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C366" s="12" t="s">
         <v>309</v>
       </c>
       <c r="D366" s="23" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="E366" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-61',8,'Вывод АОПО (МКПА-1) АТГ-3','АОПО (МКПА-1) АТГ-3'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-61','6.3','Вывод АОПО (МКПА-1) АТГ-3','АОПО (МКПА-1) АТГ-3'</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -13237,17 +13251,17 @@
         <v>721</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C367" s="12" t="s">
         <v>313</v>
       </c>
       <c r="D367" s="23" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="E367" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-62',8,'Ввод АОПО (МКПА-1) АТГ-3','АОПО (МКПА-1) АТГ-3'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-62','6.3','Ввод АОПО (МКПА-1) АТГ-3','АОПО (МКПА-1) АТГ-3'</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -13255,17 +13269,17 @@
         <v>722</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C368" s="12" t="s">
         <v>314</v>
       </c>
       <c r="D368" s="23" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="E368" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-63',8,'Вывод АОПО (МКПА-2) АТГ-3','АОПО (МКПА-2) АТГ-3'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-63','6.3','Вывод АОПО (МКПА-2) АТГ-3','АОПО (МКПА-2) АТГ-3'</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -13273,17 +13287,17 @@
         <v>723</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C369" s="12" t="s">
         <v>315</v>
       </c>
       <c r="D369" s="23" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="E369" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-64',8,'Ввод АОПО (МКПА-2) АТГ-3','АОПО (МКПА-2) АТГ-3'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-64','6.3','Ввод АОПО (МКПА-2) АТГ-3','АОПО (МКПА-2) АТГ-3'</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -13291,17 +13305,17 @@
         <v>724</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C370" s="12" t="s">
         <v>506</v>
       </c>
       <c r="D370" s="23" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="E370" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-65',8,'Вывод МКПА-1 ВЛ 500 Емелино','МКПА-1 ВЛ 500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-65','6.3','Вывод МКПА-1 ВЛ 500 Емелино','МКПА-1 ВЛ 500 кВ Емелино'</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -13309,17 +13323,17 @@
         <v>725</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C371" s="12" t="s">
         <v>507</v>
       </c>
       <c r="D371" s="23" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="E371" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-66',8,'Ввод МКПА-1 ВЛ 500 Емелино','МКПА-1 ВЛ 500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-66','6.3','Ввод МКПА-1 ВЛ 500 Емелино','МКПА-1 ВЛ 500 кВ Емелино'</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -13327,17 +13341,17 @@
         <v>726</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C372" s="12" t="s">
         <v>508</v>
       </c>
       <c r="D372" s="23" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="E372" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-67',8,'Вывод МКПА-2 ВЛ 500 Емелино','МКПА-2 ВЛ 500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-67','6.3','Вывод МКПА-2 ВЛ 500 Емелино','МКПА-2 ВЛ 500 кВ Емелино'</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -13345,17 +13359,17 @@
         <v>727</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C373" s="12" t="s">
         <v>509</v>
       </c>
       <c r="D373" s="23" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="E373" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-68',8,'Ввод МКПА-2 ВЛ 500 Емелино','МКПА-2 ВЛ 500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-68','6.3','Ввод МКПА-2 ВЛ 500 Емелино','МКПА-2 ВЛ 500 кВ Емелино'</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -13363,17 +13377,17 @@
         <v>728</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C374" s="12" t="s">
         <v>510</v>
       </c>
       <c r="D374" s="23" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="E374" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-69',8,'Вывод МКПА-1 ВЛ 500 КаГРЭС','МКПА-1 ВЛ 500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-69','6.3','Вывод МКПА-1 ВЛ 500 КаГРЭС','МКПА-1 ВЛ 500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -13381,17 +13395,17 @@
         <v>729</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C375" s="12" t="s">
         <v>511</v>
       </c>
       <c r="D375" s="23" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="E375" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-70',8,'Ввод МКПА-1 ВЛ 500 КаГРЭС','МКПА-1 ВЛ 500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-70','6.3','Ввод МКПА-1 ВЛ 500 КаГРЭС','МКПА-1 ВЛ 500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -13399,17 +13413,17 @@
         <v>730</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C376" s="12" t="s">
         <v>512</v>
       </c>
       <c r="D376" s="23" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="E376" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-71',8,'Вывод МКПА-2 ВЛ 500 КаГРЭС','МКПА-2 ВЛ 500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-71','6.3','Вывод МКПА-2 ВЛ 500 КаГРЭС','МКПА-2 ВЛ 500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -13417,17 +13431,17 @@
         <v>731</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C377" s="12" t="s">
         <v>513</v>
       </c>
       <c r="D377" s="23" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="E377" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-72',8,'Ввод МКПА-2 ВЛ 500 КаГРЭС','МКПА-2 ВЛ 500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-72','6.3','Ввод МКПА-2 ВЛ 500 КаГРЭС','МКПА-2 ВЛ 500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -13435,17 +13449,17 @@
         <v>732</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C378" s="12" t="s">
         <v>514</v>
       </c>
       <c r="D378" s="23" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="E378" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-73',8,'Вывод МКПА-1 ВЛ 500 Вятка','МКПА-1 ВЛ 500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-73','6.3','Вывод МКПА-1 ВЛ 500 Вятка','МКПА-1 ВЛ 500 кВ Вятка'</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -13453,17 +13467,17 @@
         <v>733</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C379" s="12" t="s">
         <v>515</v>
       </c>
       <c r="D379" s="23" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="E379" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-74',8,'Ввод МКПА-1 ВЛ 500 Вятка','МКПА-1 ВЛ 500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-74','6.3','Ввод МКПА-1 ВЛ 500 Вятка','МКПА-1 ВЛ 500 кВ Вятка'</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -13471,17 +13485,17 @@
         <v>734</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C380" s="12" t="s">
         <v>516</v>
       </c>
       <c r="D380" s="23" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="E380" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-75',8,'Вывод МКПА-2 ВЛ 500 Вятка','МКПА-2 ВЛ 500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-75','6.3','Вывод МКПА-2 ВЛ 500 Вятка','МКПА-2 ВЛ 500 кВ Вятка'</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -13489,17 +13503,17 @@
         <v>735</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C381" s="12" t="s">
         <v>517</v>
       </c>
       <c r="D381" s="23" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="E381" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-76',8,'Ввод МКПА-2 ВЛ 500 Вятка','МКПА-2 ВЛ 500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-76','6.3','Ввод МКПА-2 ВЛ 500 Вятка','МКПА-2 ВЛ 500 кВ Вятка'</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -13507,17 +13521,17 @@
         <v>736</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C382" s="11" t="s">
         <v>504</v>
       </c>
       <c r="D382" s="23" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="E382" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-77',8,'Вывод в ремонт полукомплекта 1 АРУ','АРУ 1 полукомплект'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-77','6.3','Вывод в ремонт полукомплекта 1 АРУ','АРУ 1 полукомплект'</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -13525,17 +13539,17 @@
         <v>737</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C383" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D383" s="23" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="E383" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-78',8,'Ввод в работу полукомплекта 1 АРУ','АРУ 1 полукомплект'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-78','6.3','Ввод в работу полукомплекта 1 АРУ','АРУ 1 полукомплект'</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -13543,17 +13557,17 @@
         <v>738</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C384" s="11" t="s">
         <v>505</v>
       </c>
       <c r="D384" s="23" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="E384" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-79',8,'Вывод в ремонт полукомплекта 2 АРУ.','АРУ 2 полукомплект'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-79','6.3','Вывод в ремонт полукомплекта 2 АРУ.','АРУ 2 полукомплект'</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -13561,17 +13575,17 @@
         <v>739</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C385" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D385" s="23" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="E385" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-80',8,'Ввод в работу полукомплекта 2 АРУ','АРУ 2 полукомплект'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-80','6.3','Ввод в работу полукомплекта 2 АРУ','АРУ 2 полукомплект'</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -13579,17 +13593,17 @@
         <v>740</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C386" s="11" t="s">
         <v>451</v>
       </c>
       <c r="D386" s="23" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="E386" s="1" t="str">
-        <f t="shared" ref="E386:E449" si="6">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A386,"',",B386,",'",C386,"','",D386,"'")</f>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-81',8,'Вывод в ремонт полукомплектов 1 и 2 АРУ на базе УПАЭ','АРУ 1 и 2 полукомплект'</v>
+        <f t="shared" ref="E386:E449" si="6">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A386,"','",B386,"','",C386,"','",D386,"'")</f>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-81','6.3','Вывод в ремонт полукомплектов 1 и 2 АРУ на базе УПАЭ','АРУ 1 и 2 полукомплект'</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -13597,17 +13611,17 @@
         <v>741</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C387" s="11" t="s">
         <v>452</v>
       </c>
       <c r="D387" s="23" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="E387" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-82',8,'Ввод в работу полукомплектов 1 и 2 АРУ на базе УПАЭ','АРУ 1 и 2 полукомплект'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-82','6.3','Ввод в работу полукомплектов 1 и 2 АРУ на базе УПАЭ','АРУ 1 и 2 полукомплект'</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -13615,17 +13629,17 @@
         <v>742</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C388" s="11" t="s">
         <v>792</v>
       </c>
       <c r="D388" s="23" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="E388" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-83',8,'Вывод ОАПВ ВЛ-500 кВ Емелино (ТАПВ в работе)','ОАПВ ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-83','6.3','Вывод ОАПВ ВЛ-500 кВ Емелино (ТАПВ в работе)','ОАПВ ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -13633,17 +13647,17 @@
         <v>743</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C389" s="11" t="s">
         <v>793</v>
       </c>
       <c r="D389" s="23" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="E389" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-84',8,'Ввод в работу ОАПВ ВЛ-500 кВ Емелино','ОАПВ ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-84','6.3','Ввод в работу ОАПВ ВЛ-500 кВ Емелино','ОАПВ ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -13651,17 +13665,17 @@
         <v>766</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C390" s="11" t="s">
         <v>767</v>
       </c>
       <c r="D390" s="23" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="E390" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-85',8,'Вывод ОАПВ ВЛ-500 кВ КаГРЭС (ТАПВ в работе)','ОАПВ ВЛ-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-85','6.3','Вывод ОАПВ ВЛ-500 кВ КаГРЭС (ТАПВ в работе)','ОАПВ ВЛ-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -13669,17 +13683,17 @@
         <v>769</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C391" s="11" t="s">
         <v>768</v>
       </c>
       <c r="D391" s="23" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="E391" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-86',8,'Ввод в работу ОАПВ ВЛ-500 кВ КаГРЭС','ОАПВ ВЛ-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-86','6.3','Ввод в работу ОАПВ ВЛ-500 кВ КаГРЭС','ОАПВ ВЛ-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -13687,17 +13701,17 @@
         <v>770</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C392" s="11" t="s">
         <v>794</v>
       </c>
       <c r="D392" s="23" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="E392" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-87',8,'Вывод ОАПВ ВЛ-500 кВ Вятка (ТАПВ в работе)','ОАПВ ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-87','6.3','Вывод ОАПВ ВЛ-500 кВ Вятка (ТАПВ в работе)','ОАПВ ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -13705,17 +13719,17 @@
         <v>771</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>985</v>
+        <v>1206</v>
       </c>
       <c r="C393" s="11" t="s">
         <v>795</v>
       </c>
       <c r="D393" s="23" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="E393" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-88',8,'Ввод в работу ОАПВ ВЛ-500 кВ Вятка','ОАПВ ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '6.3-88','6.3','Ввод в работу ОАПВ ВЛ-500 кВ Вятка','ОАПВ ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -13723,17 +13737,17 @@
         <v>576</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>993</v>
+        <v>1207</v>
       </c>
       <c r="C394" s="10" t="s">
         <v>273</v>
       </c>
       <c r="D394" s="23" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="E394" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-01',9,'Вывод передатчика АКА-676 кГц ВЛ-220 кВ Ижевск 1.','АКА-676 кГц ВЛ-220 кВ Ижевск-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-01','7.1','Вывод передатчика АКА-676 кГц ВЛ-220 кВ Ижевск 1.','АКА-676 кГц ВЛ-220 кВ Ижевск-1'</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -13741,17 +13755,17 @@
         <v>577</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>993</v>
+        <v>1207</v>
       </c>
       <c r="C395" s="10" t="s">
         <v>274</v>
       </c>
       <c r="D395" s="23" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="E395" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-02',9,'Ввод передатчика АКА-676 кГц ВЛ-220 кВ Ижевск 1.','АКА-676 кГц ВЛ-220 кВ Ижевск-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-02','7.1','Ввод передатчика АКА-676 кГц ВЛ-220 кВ Ижевск 1.','АКА-676 кГц ВЛ-220 кВ Ижевск-1'</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -13759,17 +13773,17 @@
         <v>578</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>993</v>
+        <v>1207</v>
       </c>
       <c r="C396" s="10" t="s">
         <v>275</v>
       </c>
       <c r="D396" s="23" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="E396" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-03',9,'Вывод приемника АКА-592 кГц ВЛ-220 кВ Ижевск 1.','АКА-592 кГц ВЛ-220 кВ Ижевск-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-03','7.1','Вывод приемника АКА-592 кГц ВЛ-220 кВ Ижевск 1.','АКА-592 кГц ВЛ-220 кВ Ижевск-1'</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -13777,17 +13791,17 @@
         <v>579</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>993</v>
+        <v>1207</v>
       </c>
       <c r="C397" s="10" t="s">
         <v>276</v>
       </c>
       <c r="D397" s="23" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="E397" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-04',9,'Ввод приемника АКА-592 кГц ВЛ-220 кВ Ижевск 1.','АКА-592 кГц ВЛ-220 кВ Ижевск-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-04','7.1','Ввод приемника АКА-592 кГц ВЛ-220 кВ Ижевск 1.','АКА-592 кГц ВЛ-220 кВ Ижевск-1'</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -13795,17 +13809,17 @@
         <v>580</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>993</v>
+        <v>1207</v>
       </c>
       <c r="C398" s="10" t="s">
         <v>277</v>
       </c>
       <c r="D398" s="23" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="E398" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-05',9,'Вывод передатчика АКА-548 кГц ВЛ-220 кВ Ижевск 2.','АКА-548 кГц ВЛ-220 кВ Ижевск-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-05','7.1','Вывод передатчика АКА-548 кГц ВЛ-220 кВ Ижевск 2.','АКА-548 кГц ВЛ-220 кВ Ижевск-2'</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -13813,17 +13827,17 @@
         <v>581</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>993</v>
+        <v>1207</v>
       </c>
       <c r="C399" s="15" t="s">
         <v>278</v>
       </c>
       <c r="D399" s="23" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="E399" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-06',9,'Ввод передатчика АКА-548 кГц ВЛ-220 кВ Ижевск 2.','АКА-548 кГц ВЛ-220 кВ Ижевск-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-06','7.1','Ввод передатчика АКА-548 кГц ВЛ-220 кВ Ижевск 2.','АКА-548 кГц ВЛ-220 кВ Ижевск-2'</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -13831,17 +13845,17 @@
         <v>582</v>
       </c>
       <c r="B400" s="7" t="s">
-        <v>993</v>
+        <v>1207</v>
       </c>
       <c r="C400" s="10" t="s">
         <v>280</v>
       </c>
       <c r="D400" s="23" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="E400" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-07',9,'Вывод приемника АКА-580 кГц ВЛ-220 кВ Ижевск 2.','АКА-580 кГц ВЛ-220 кВ Ижевск-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-07','7.1','Вывод приемника АКА-580 кГц ВЛ-220 кВ Ижевск 2.','АКА-580 кГц ВЛ-220 кВ Ижевск-2'</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -13849,17 +13863,17 @@
         <v>583</v>
       </c>
       <c r="B401" s="7" t="s">
-        <v>993</v>
+        <v>1207</v>
       </c>
       <c r="C401" s="10" t="s">
         <v>279</v>
       </c>
       <c r="D401" s="23" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="E401" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-08',9,'Ввод приемника АКА-580 кГц ВЛ-220 кВ Ижевск 2.','АКА-580 кГц ВЛ-220 кВ Ижевск-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-08','7.1','Ввод приемника АКА-580 кГц ВЛ-220 кВ Ижевск 2.','АКА-580 кГц ВЛ-220 кВ Ижевск-2'</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -13867,17 +13881,17 @@
         <v>584</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>993</v>
+        <v>1207</v>
       </c>
       <c r="C402" s="10" t="s">
         <v>281</v>
       </c>
       <c r="D402" s="23" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="E402" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-09',9,'Вывод передатчика АКА-328 кГц ВЛ-220 кВ Светлая.','АКА-328 кГц ВЛ-220 кВ Светлая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-09','7.1','Вывод передатчика АКА-328 кГц ВЛ-220 кВ Светлая.','АКА-328 кГц ВЛ-220 кВ Светлая'</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -13885,17 +13899,17 @@
         <v>585</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>993</v>
+        <v>1207</v>
       </c>
       <c r="C403" s="10" t="s">
         <v>282</v>
       </c>
       <c r="D403" s="23" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="E403" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-10',9,'Ввод передатчика АКА-328 кГц ВЛ-220 кВ Светлая.','АКА-328 кГц ВЛ-220 кВ Светлая'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-10','7.1','Ввод передатчика АКА-328 кГц ВЛ-220 кВ Светлая.','АКА-328 кГц ВЛ-220 кВ Светлая'</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -13903,17 +13917,17 @@
         <v>586</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>993</v>
+        <v>1207</v>
       </c>
       <c r="C404" s="10" t="s">
         <v>283</v>
       </c>
       <c r="D404" s="23" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="E404" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-11',9,'Вывод приемника АКА-936 кГц ВЛ-220 кВ Каучук 1.','АКА-936 кГц ВЛ-220 кВ Каучук-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-11','7.1','Вывод приемника АКА-936 кГц ВЛ-220 кВ Каучук 1.','АКА-936 кГц ВЛ-220 кВ Каучук-1'</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -13921,17 +13935,17 @@
         <v>587</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>993</v>
+        <v>1207</v>
       </c>
       <c r="C405" s="9" t="s">
         <v>284</v>
       </c>
       <c r="D405" s="23" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="E405" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-12',9,'Ввод приемника АКА-936 кГц ВЛ-220 кВ Каучук 1.','АКА-936 кГц ВЛ-220 кВ Каучук-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-12','7.1','Ввод приемника АКА-936 кГц ВЛ-220 кВ Каучук 1.','АКА-936 кГц ВЛ-220 кВ Каучук-1'</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -13939,17 +13953,17 @@
         <v>588</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>993</v>
+        <v>1207</v>
       </c>
       <c r="C406" s="10" t="s">
         <v>303</v>
       </c>
       <c r="D406" s="23" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="E406" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-13',9,'Вывод приемника АКА-648 кГц ВЛ-220 кВ Ижевск 2.','АКА-648 кГц ВЛ-220 кВ Ижевск-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-13','7.1','Вывод приемника АКА-648 кГц ВЛ-220 кВ Ижевск 2.','АКА-648 кГц ВЛ-220 кВ Ижевск-2'</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -13957,17 +13971,17 @@
         <v>589</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>993</v>
+        <v>1207</v>
       </c>
       <c r="C407" s="10" t="s">
         <v>304</v>
       </c>
       <c r="D407" s="23" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="E407" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-14',9,'Ввод приемника АКА-648 кГц ВЛ-220 кВ Ижевск 2.','АКА-648 кГц ВЛ-220 кВ Ижевск-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.1-14','7.1','Ввод приемника АКА-648 кГц ВЛ-220 кВ Ижевск 2.','АКА-648 кГц ВЛ-220 кВ Ижевск-2'</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -13975,17 +13989,17 @@
         <v>598</v>
       </c>
       <c r="B408" s="7" t="s">
-        <v>994</v>
+        <v>1208</v>
       </c>
       <c r="C408" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D408" s="23" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="E408" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-01',10,'Вывод передатчика АКА-16 кГц ВЛ-500 кВ Емелино.','АКА-16 кГц ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-01','7.2','Вывод передатчика АКА-16 кГц ВЛ-500 кВ Емелино.','АКА-16 кГц ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -13993,17 +14007,17 @@
         <v>599</v>
       </c>
       <c r="B409" s="7" t="s">
-        <v>994</v>
+        <v>1208</v>
       </c>
       <c r="C409" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D409" s="23" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="E409" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-02',10,'Ввод передатчика АКА-16 кГц ВЛ-500 кВ Емелино.','АКА-16 кГц ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-02','7.2','Ввод передатчика АКА-16 кГц ВЛ-500 кВ Емелино.','АКА-16 кГц ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -14011,17 +14025,17 @@
         <v>600</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>994</v>
+        <v>1208</v>
       </c>
       <c r="C410" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D410" s="23" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="E410" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-03',10,'Вывод приемника АКА-20 кГц ВЛ-500 кВ Емелино.','АКА-20 кГц ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-03','7.2','Вывод приемника АКА-20 кГц ВЛ-500 кВ Емелино.','АКА-20 кГц ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -14029,17 +14043,17 @@
         <v>601</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>994</v>
+        <v>1208</v>
       </c>
       <c r="C411" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D411" s="23" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="E411" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-04',10,'Ввод приемника АКА-20 кГц ВЛ-500 кВ Емелино.','АКА-20 кГц ВЛ-500 кВ Емелино'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-04','7.2','Ввод приемника АКА-20 кГц ВЛ-500 кВ Емелино.','АКА-20 кГц ВЛ-500 кВ Емелино'</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -14047,17 +14061,17 @@
         <v>602</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>994</v>
+        <v>1208</v>
       </c>
       <c r="C412" s="10" t="s">
         <v>594</v>
       </c>
       <c r="D412" s="23" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="E412" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-05',10,'Вывод приема-передатчика АКСТ-406 кГц ВЛ-500 кВ КаГРЭС.','АКСТ-406 кГц ВЛ-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-05','7.2','Вывод приема-передатчика АКСТ-406 кГц ВЛ-500 кВ КаГРЭС.','АКСТ-406 кГц ВЛ-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -14065,17 +14079,17 @@
         <v>603</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>994</v>
+        <v>1208</v>
       </c>
       <c r="C413" s="10" t="s">
         <v>595</v>
       </c>
       <c r="D413" s="23" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="E413" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-06',10,'Ввод приема-передатчика АКСТ-406 кГц ВЛ-500 кВ КаГРЭС.','АКСТ-406 кГц ВЛ-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-06','7.2','Ввод приема-передатчика АКСТ-406 кГц ВЛ-500 кВ КаГРЭС.','АКСТ-406 кГц ВЛ-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -14083,17 +14097,17 @@
         <v>604</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>994</v>
+        <v>1208</v>
       </c>
       <c r="C414" s="10" t="s">
         <v>596</v>
       </c>
       <c r="D414" s="23" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="E414" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-07',10,'Вывод передатчика АКА-468 кГц ВЛ-500 кВ КаГРЭС.','АКА-468 кГц ВЛ-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-07','7.2','Вывод передатчика АКА-468 кГц ВЛ-500 кВ КаГРЭС.','АКА-468 кГц ВЛ-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -14101,17 +14115,17 @@
         <v>605</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>994</v>
+        <v>1208</v>
       </c>
       <c r="C415" s="10" t="s">
         <v>597</v>
       </c>
       <c r="D415" s="23" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="E415" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-08',10,'Ввод передатчика АКА-468 кГц ВЛ-500 кВ КаГРЭС.','АКА-468 кГц ВЛ-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-08','7.2','Ввод передатчика АКА-468 кГц ВЛ-500 кВ КаГРЭС.','АКА-468 кГц ВЛ-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -14119,17 +14133,17 @@
         <v>606</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>994</v>
+        <v>1208</v>
       </c>
       <c r="C416" s="10" t="s">
         <v>271</v>
       </c>
       <c r="D416" s="23" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="E416" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-09',10,'Вывод приемника АКА-512 кГц ВЛ-500 кВ КаГРЭС.','АКА-512 кГц ВЛ-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-09','7.2','Вывод приемника АКА-512 кГц ВЛ-500 кВ КаГРЭС.','АКА-512 кГц ВЛ-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -14137,17 +14151,17 @@
         <v>607</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>994</v>
+        <v>1208</v>
       </c>
       <c r="C417" s="10" t="s">
         <v>272</v>
       </c>
       <c r="D417" s="23" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="E417" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-10',10,'Ввод приемника АКА-512 кГц ВЛ-500 кВ КаГРЭС.','АКА-512 кГц ВЛ-500 кВ Кармановская ГРЭС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-10','7.2','Ввод приемника АКА-512 кГц ВЛ-500 кВ КаГРЭС.','АКА-512 кГц ВЛ-500 кВ Кармановская ГРЭС'</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -14155,17 +14169,17 @@
         <v>608</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>994</v>
+        <v>1208</v>
       </c>
       <c r="C418" s="10" t="s">
         <v>590</v>
       </c>
       <c r="D418" s="23" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="E418" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-11',10,'Вывод приемника АКА-96 кГц ВЛ-500 кВ Вятка.','АКА-96 кГц ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-11','7.2','Вывод приемника АКА-96 кГц ВЛ-500 кВ Вятка.','АКА-96 кГц ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -14173,17 +14187,17 @@
         <v>609</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>994</v>
+        <v>1208</v>
       </c>
       <c r="C419" s="10" t="s">
         <v>591</v>
       </c>
       <c r="D419" s="23" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="E419" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-12',10,'Ввод приемника АКА-96 кГц ВЛ-500 кВ Вятка.','АКА-96 кГц ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-12','7.2','Ввод приемника АКА-96 кГц ВЛ-500 кВ Вятка.','АКА-96 кГц ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -14191,17 +14205,17 @@
         <v>610</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>994</v>
+        <v>1208</v>
       </c>
       <c r="C420" s="10" t="s">
         <v>592</v>
       </c>
       <c r="D420" s="23" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="E420" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-13',10,'Вывод передатчика АКА-116 кГц ВЛ-500 кВ Вятка.','АКА-116 кГц ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-13','7.2','Вывод передатчика АКА-116 кГц ВЛ-500 кВ Вятка.','АКА-116 кГц ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -14209,17 +14223,17 @@
         <v>611</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>994</v>
+        <v>1208</v>
       </c>
       <c r="C421" s="10" t="s">
         <v>593</v>
       </c>
       <c r="D421" s="23" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="E421" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-14',10,'Ввод передатчика АКА-116 кГц ВЛ-500 кВ Вятка.','АКА-116 кГц ВЛ-500 кВ Вятка'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '7.2-14','7.2','Ввод передатчика АКА-116 кГц ВЛ-500 кВ Вятка.','АКА-116 кГц ВЛ-500 кВ Вятка'</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -14227,17 +14241,17 @@
         <v>800</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C422" s="22" t="s">
         <v>803</v>
       </c>
       <c r="D422" s="23" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E422" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-01',11,'Вывод в ремонт КРУ-1','КРУ-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-01','8','Вывод в ремонт КРУ-1','КРУ-1'</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -14245,17 +14259,17 @@
         <v>804</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C423" s="22" t="s">
         <v>805</v>
       </c>
       <c r="D423" s="23" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E423" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-02',11,'Ввод в работу КРУ-1','КРУ-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-02','8','Ввод в работу КРУ-1','КРУ-1'</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -14263,17 +14277,17 @@
         <v>806</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C424" s="22" t="s">
         <v>807</v>
       </c>
       <c r="D424" s="23" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E424" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-03',11,'Вывод в ремонт КРУ-2','КРУ-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-03','8','Вывод в ремонт КРУ-2','КРУ-2'</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -14281,17 +14295,17 @@
         <v>808</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C425" s="22" t="s">
         <v>809</v>
       </c>
       <c r="D425" s="23" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E425" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-04',11,'Ввод в работу КРУ-2','КРУ-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-04','8','Ввод в работу КРУ-2','КРУ-2'</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -14299,17 +14313,17 @@
         <v>810</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C426" s="22" t="s">
         <v>811</v>
       </c>
       <c r="D426" s="23" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E426" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-05',11,'Вывод в ремонт КРУ-3','КРУ-3'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-05','8','Вывод в ремонт КРУ-3','КРУ-3'</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -14317,17 +14331,17 @@
         <v>812</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C427" s="22" t="s">
         <v>813</v>
       </c>
       <c r="D427" s="23" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E427" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-06',11,'Ввод в работу КРУ-3','КРУ-3'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-06','8','Ввод в работу КРУ-3','КРУ-3'</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -14335,17 +14349,17 @@
         <v>814</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C428" s="22" t="s">
         <v>815</v>
       </c>
       <c r="D428" s="23" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E428" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-07',11,'Вывод в ремонт перемычки КРУ-1 - КРУ-2','Перемычка КРУ-1 - КРУ-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-07','8','Вывод в ремонт перемычки КРУ-1 - КРУ-2','Перемычка КРУ-1 - КРУ-2'</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -14353,17 +14367,17 @@
         <v>816</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C429" s="22" t="s">
         <v>817</v>
       </c>
       <c r="D429" s="23" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E429" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-08',11,'Ввод в работу перемычки КРУ-1 - КРУ-2','Перемычка КРУ-1 - КРУ-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-08','8','Ввод в работу перемычки КРУ-1 - КРУ-2','Перемычка КРУ-1 - КРУ-2'</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -14371,17 +14385,17 @@
         <v>818</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C430" s="22" t="s">
         <v>819</v>
       </c>
       <c r="D430" s="23" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="E430" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-09',11,'Вывод в ремонт перемычки КРУ-1 - КРУ-3','Перемычка КРУ-1 - КРУ-3'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-09','8','Вывод в ремонт перемычки КРУ-1 - КРУ-3','Перемычка КРУ-1 - КРУ-3'</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -14389,17 +14403,17 @@
         <v>820</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C431" s="22" t="s">
         <v>821</v>
       </c>
       <c r="D431" s="23" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="E431" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-10',11,'Ввод в работу перемычки КРУ-1 - КРУ-3','Перемычка КРУ-1 - КРУ-3'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-10','8','Ввод в работу перемычки КРУ-1 - КРУ-3','Перемычка КРУ-1 - КРУ-3'</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -14407,17 +14421,17 @@
         <v>822</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C432" s="22" t="s">
         <v>823</v>
       </c>
       <c r="D432" s="23" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="E432" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-11',11,'Вывод в ремонт перемычки КРУ-2 - КРУ-3','Перемычка КРУ-2 - КРУ-3'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-11','8','Вывод в ремонт перемычки КРУ-2 - КРУ-3','Перемычка КРУ-2 - КРУ-3'</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -14425,17 +14439,17 @@
         <v>824</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C433" s="22" t="s">
         <v>825</v>
       </c>
       <c r="D433" s="23" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="E433" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-12',11,'Ввод в работу перемычки КРУ-2 - КРУ-3','Перемычка КРУ-2 - КРУ-3'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-12','8','Ввод в работу перемычки КРУ-2 - КРУ-3','Перемычка КРУ-2 - КРУ-3'</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
@@ -14443,17 +14457,17 @@
         <v>826</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C434" s="22" t="s">
         <v>827</v>
       </c>
       <c r="D434" s="23" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E434" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-13',11,'Вывод в ремонт трансформатора 21Т','21Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-13','8','Вывод в ремонт трансформатора 21Т','21Т'</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -14461,17 +14475,17 @@
         <v>828</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C435" s="22" t="s">
         <v>829</v>
       </c>
       <c r="D435" s="23" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E435" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-14',11,'Ввод в работу трансформатора 21Т','21Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-14','8','Ввод в работу трансформатора 21Т','21Т'</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -14479,17 +14493,17 @@
         <v>830</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C436" s="22" t="s">
         <v>831</v>
       </c>
       <c r="D436" s="23" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E436" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-15',11,'Вывод в ремонт трансформатора 22Т','22Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-15','8','Вывод в ремонт трансформатора 22Т','22Т'</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -14497,17 +14511,17 @@
         <v>832</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C437" s="22" t="s">
         <v>833</v>
       </c>
       <c r="D437" s="23" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E437" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-16',11,'Ввод в работу трансформатора 22Т','22Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-16','8','Ввод в работу трансформатора 22Т','22Т'</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -14515,17 +14529,17 @@
         <v>834</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C438" s="22" t="s">
         <v>835</v>
       </c>
       <c r="D438" s="23" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E438" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-17',11,'Вывод в ремонт трансформатора 23Т','23Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-17','8','Вывод в ремонт трансформатора 23Т','23Т'</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -14533,17 +14547,17 @@
         <v>836</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C439" s="22" t="s">
         <v>837</v>
       </c>
       <c r="D439" s="23" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E439" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-18',11,'Ввод в работу трансформатора 23Т','23Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-18','8','Ввод в работу трансформатора 23Т','23Т'</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -14551,17 +14565,17 @@
         <v>838</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C440" s="22" t="s">
         <v>839</v>
       </c>
       <c r="D440" s="23" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E440" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-19',11,'Вывод в ремонт трансформатора 24Т','24Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-19','8','Вывод в ремонт трансформатора 24Т','24Т'</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -14569,17 +14583,17 @@
         <v>840</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C441" s="22" t="s">
         <v>841</v>
       </c>
       <c r="D441" s="23" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E441" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-20',11,'Ввод в работу трансформатора 24Т','24Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-20','8','Ввод в работу трансформатора 24Т','24Т'</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -14587,17 +14601,17 @@
         <v>842</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C442" s="22" t="s">
         <v>843</v>
       </c>
       <c r="D442" s="23" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E442" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-21',11,'Вывод в ремонт трансформатора 25Т','25Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-21','8','Вывод в ремонт трансформатора 25Т','25Т'</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -14605,17 +14619,17 @@
         <v>844</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C443" s="22" t="s">
         <v>845</v>
       </c>
       <c r="D443" s="23" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E443" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-22',11,'Ввод в работу трансформатора 25Т','25Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-22','8','Ввод в работу трансформатора 25Т','25Т'</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
@@ -14623,17 +14637,17 @@
         <v>846</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C444" s="22" t="s">
         <v>847</v>
       </c>
       <c r="D444" s="23" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E444" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-23',11,'Вывод в ремонт трансформатора 26Т','26Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-23','8','Вывод в ремонт трансформатора 26Т','26Т'</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -14641,17 +14655,17 @@
         <v>848</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C445" s="22" t="s">
         <v>849</v>
       </c>
       <c r="D445" s="23" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E445" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-24',11,'Ввод в работу трансформатора 26Т','26Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-24','8','Ввод в работу трансформатора 26Т','26Т'</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -14659,17 +14673,17 @@
         <v>850</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C446" s="22" t="s">
         <v>851</v>
       </c>
       <c r="D446" s="23" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E446" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-25',11,'Вывод в ремонт трансформатора 27Т','27Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-25','8','Вывод в ремонт трансформатора 27Т','27Т'</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -14677,17 +14691,17 @@
         <v>852</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C447" s="22" t="s">
         <v>853</v>
       </c>
       <c r="D447" s="23" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E447" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-26',11,'Ввод в работу трансформатора 27Т','27Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-26','8','Ввод в работу трансформатора 27Т','27Т'</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -14695,17 +14709,17 @@
         <v>854</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C448" s="22" t="s">
         <v>855</v>
       </c>
       <c r="D448" s="23" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E448" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-27',11,'Вывод в ремонт трансформатора 28Т','28Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-27','8','Вывод в ремонт трансформатора 28Т','28Т'</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -14713,17 +14727,17 @@
         <v>856</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C449" s="22" t="s">
         <v>857</v>
       </c>
       <c r="D449" s="23" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E449" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-28',11,'Ввод в работу трансформатора 28Т','28Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-28','8','Ввод в работу трансформатора 28Т','28Т'</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -14731,17 +14745,17 @@
         <v>858</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C450" s="22" t="s">
         <v>859</v>
       </c>
       <c r="D450" s="23" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E450" s="1" t="str">
-        <f t="shared" ref="E450:E487" si="7">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A450,"',",B450,",'",C450,"','",D450,"'")</f>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-29',11,'Вывод в ремонт трансформатора 29Т','29Т'</v>
+        <f t="shared" ref="E450:E487" si="7">CONCATENATE("INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '",A450,"','",B450,"','",C450,"','",D450,"'")</f>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-29','8','Вывод в ремонт трансформатора 29Т','29Т'</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -14749,17 +14763,17 @@
         <v>860</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C451" s="22" t="s">
         <v>861</v>
       </c>
       <c r="D451" s="23" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E451" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-30',11,'Ввод в работу трансформатора 29Т','29Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-30','8','Ввод в работу трансформатора 29Т','29Т'</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -14767,17 +14781,17 @@
         <v>862</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C452" s="22" t="s">
         <v>863</v>
       </c>
       <c r="D452" s="23" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E452" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-31',11,'Вывод в ремонт трансформатора 30Т','30Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-31','8','Вывод в ремонт трансформатора 30Т','30Т'</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
@@ -14785,17 +14799,17 @@
         <v>864</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C453" s="22" t="s">
         <v>865</v>
       </c>
       <c r="D453" s="23" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E453" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-32',11,'Ввод в работу трансформатора 30Т','30Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-32','8','Ввод в работу трансформатора 30Т','30Т'</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
@@ -14803,17 +14817,17 @@
         <v>866</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C454" s="22" t="s">
         <v>867</v>
       </c>
       <c r="D454" s="23" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E454" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-33',11,'Вывод в ремонт трансформатора 31Т','31Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-33','8','Вывод в ремонт трансформатора 31Т','31Т'</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -14821,17 +14835,17 @@
         <v>868</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C455" s="22" t="s">
         <v>869</v>
       </c>
       <c r="D455" s="23" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E455" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-34',11,'Ввод в работу трансформатора 31Т','31Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-34','8','Ввод в работу трансформатора 31Т','31Т'</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
@@ -14839,17 +14853,17 @@
         <v>870</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C456" s="22" t="s">
         <v>871</v>
       </c>
       <c r="D456" s="23" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E456" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-35',11,'Вывод в ремонт трансформатора 32Т','32Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-35','8','Вывод в ремонт трансформатора 32Т','32Т'</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -14857,17 +14871,17 @@
         <v>872</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C457" s="22" t="s">
         <v>873</v>
       </c>
       <c r="D457" s="23" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E457" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-36',11,'Ввод в работу трансформатора 32Т','32Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-36','8','Ввод в работу трансформатора 32Т','32Т'</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
@@ -14875,17 +14889,17 @@
         <v>874</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C458" s="22" t="s">
         <v>875</v>
       </c>
       <c r="D458" s="23" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E458" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-37',11,'Вывод в ремонт трансформатора 33Т','33Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-37','8','Вывод в ремонт трансформатора 33Т','33Т'</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -14893,17 +14907,17 @@
         <v>876</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C459" s="22" t="s">
         <v>877</v>
       </c>
       <c r="D459" s="23" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E459" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-38',11,'Ввод в работу трансформатора 33Т','33Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-38','8','Ввод в работу трансформатора 33Т','33Т'</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -14911,17 +14925,17 @@
         <v>878</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C460" s="22" t="s">
         <v>879</v>
       </c>
       <c r="D460" s="23" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E460" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-39',11,'Вывод в ремонт трансформатора 34Т','34Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-39','8','Вывод в ремонт трансформатора 34Т','34Т'</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -14929,17 +14943,17 @@
         <v>880</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C461" s="22" t="s">
         <v>881</v>
       </c>
       <c r="D461" s="23" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E461" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-40',11,'Ввод в работу трансформатора 34Т','34Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-40','8','Ввод в работу трансформатора 34Т','34Т'</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -14947,17 +14961,17 @@
         <v>882</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C462" s="22" t="s">
         <v>883</v>
       </c>
       <c r="D462" s="23" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E462" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-41',11,'Вывод в ремонт трансформатора 35Т','35Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-41','8','Вывод в ремонт трансформатора 35Т','35Т'</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -14965,17 +14979,17 @@
         <v>884</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C463" s="22" t="s">
         <v>885</v>
       </c>
       <c r="D463" s="23" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E463" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-42',11,'Ввод в работу трансформатора 35Т','35Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-42','8','Ввод в работу трансформатора 35Т','35Т'</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -14983,17 +14997,17 @@
         <v>886</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C464" s="22" t="s">
         <v>887</v>
       </c>
       <c r="D464" s="23" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E464" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-43',11,'Вывод в ремонт трансформатора 36Т','36Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-43','8','Вывод в ремонт трансформатора 36Т','36Т'</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -15001,17 +15015,17 @@
         <v>888</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C465" s="22" t="s">
         <v>889</v>
       </c>
       <c r="D465" s="23" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E465" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-44',11,'Ввод в работу трансформатора 36Т','36Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-44','8','Ввод в работу трансформатора 36Т','36Т'</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -15019,17 +15033,17 @@
         <v>890</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C466" s="22" t="s">
         <v>891</v>
       </c>
       <c r="D466" s="23" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E466" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-45',11,'Вывод в ремонт трансформатора 37Т','37Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-45','8','Вывод в ремонт трансформатора 37Т','37Т'</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
@@ -15037,17 +15051,17 @@
         <v>892</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C467" s="22" t="s">
         <v>893</v>
       </c>
       <c r="D467" s="23" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E467" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-46',11,'Ввод в работу трансформатора 37Т','37Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-46','8','Ввод в работу трансформатора 37Т','37Т'</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
@@ -15055,17 +15069,17 @@
         <v>894</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C468" s="22" t="s">
         <v>895</v>
       </c>
       <c r="D468" s="23" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E468" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-47',11,'Вывод в ремонт трансформатора 38Т','38Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-47','8','Вывод в ремонт трансформатора 38Т','38Т'</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
@@ -15073,17 +15087,17 @@
         <v>896</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C469" s="22" t="s">
         <v>897</v>
       </c>
       <c r="D469" s="23" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E469" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-48',11,'Ввод в работу трансформатора 38Т','38Т'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-48','8','Ввод в работу трансформатора 38Т','38Т'</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -15091,17 +15105,17 @@
         <v>898</v>
       </c>
       <c r="B470" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C470" s="22" t="s">
         <v>899</v>
       </c>
       <c r="D470" s="23" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E470" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-49',11,'Вывод в ремонт трансформатора ТП-1','ТП-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-49','8','Вывод в ремонт трансформатора ТП-1','ТП-1'</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
@@ -15109,17 +15123,17 @@
         <v>900</v>
       </c>
       <c r="B471" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C471" s="22" t="s">
         <v>901</v>
       </c>
       <c r="D471" s="23" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E471" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-50',11,'Ввод в работу трансформатора ТП-1','ТП-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-50','8','Ввод в работу трансформатора ТП-1','ТП-1'</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -15127,17 +15141,17 @@
         <v>902</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C472" s="22" t="s">
         <v>903</v>
       </c>
       <c r="D472" s="23" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E472" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-51',11,'Вывод в ремонт трансформатора ТП-2','ТП-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-51','8','Вывод в ремонт трансформатора ТП-2','ТП-2'</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -15145,17 +15159,17 @@
         <v>904</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C473" s="22" t="s">
         <v>905</v>
       </c>
       <c r="D473" s="23" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E473" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-52',11,'Ввод в работу трансформатора ТП-2','ТП-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-52','8','Ввод в работу трансформатора ТП-2','ТП-2'</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -15163,17 +15177,17 @@
         <v>906</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C474" s="22" t="s">
         <v>907</v>
       </c>
       <c r="D474" s="23" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="E474" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-53',11,'Вывод в ремонт трансформатора ТВИ','ТВИ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-53','8','Вывод в ремонт трансформатора ТВИ','ТВИ'</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -15181,17 +15195,17 @@
         <v>908</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C475" s="22" t="s">
         <v>909</v>
       </c>
       <c r="D475" s="23" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="E475" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-54',11,'Ввод в резерв трансформатора ТВИ','ТВИ'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-54','8','Ввод в резерв трансформатора ТВИ','ТВИ'</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -15199,17 +15213,17 @@
         <v>910</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C476" s="22" t="s">
         <v>911</v>
       </c>
       <c r="D476" s="23" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="E476" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-55',11,'Вывод в ремонт насоса №1 -1ВС','Насос №1 - 1ВС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-55','8','Вывод в ремонт насоса №1 -1ВС','Насос №1 - 1ВС'</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
@@ -15217,17 +15231,17 @@
         <v>912</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C477" s="22" t="s">
         <v>913</v>
       </c>
       <c r="D477" s="23" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="E477" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-56',11,'Ввод в резерв насоса №1 -1ВС','Насос №1 - 1ВС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-56','8','Ввод в резерв насоса №1 -1ВС','Насос №1 - 1ВС'</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
@@ -15235,17 +15249,17 @@
         <v>914</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C478" s="22" t="s">
         <v>915</v>
       </c>
       <c r="D478" s="23" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="E478" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-57',11,'Вывод в ремонт насоса №1 -2ВС','Насос №1 - 2ВС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-57','8','Вывод в ремонт насоса №1 -2ВС','Насос №1 - 2ВС'</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -15253,17 +15267,17 @@
         <v>916</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C479" s="22" t="s">
         <v>917</v>
       </c>
       <c r="D479" s="23" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="E479" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-58',11,'Ввод в резерв насоса №1 -2ВС','Насос №1 - 2ВС'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-58','8','Ввод в резерв насоса №1 -2ВС','Насос №1 - 2ВС'</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -15271,17 +15285,17 @@
         <v>918</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C480" s="22" t="s">
         <v>919</v>
       </c>
       <c r="D480" s="23" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="E480" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-59',11,'Вывод в ремонт КЛ Шлюз-1','КЛ Шлюз-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-59','8','Вывод в ремонт КЛ Шлюз-1','КЛ Шлюз-1'</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -15289,17 +15303,17 @@
         <v>920</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C481" s="22" t="s">
         <v>921</v>
       </c>
       <c r="D481" s="23" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="E481" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-60',11,'Ввод в работу КЛ Шлюз-1','КЛ Шлюз-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-60','8','Ввод в работу КЛ Шлюз-1','КЛ Шлюз-1'</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
@@ -15307,17 +15321,17 @@
         <v>922</v>
       </c>
       <c r="B482" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C482" s="22" t="s">
         <v>923</v>
       </c>
       <c r="D482" s="23" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="E482" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-61',11,'Вывод в ремонт КЛ Шлюз-2','КЛ Шлюз-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-61','8','Вывод в ремонт КЛ Шлюз-2','КЛ Шлюз-2'</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
@@ -15325,17 +15339,17 @@
         <v>924</v>
       </c>
       <c r="B483" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C483" s="22" t="s">
         <v>925</v>
       </c>
       <c r="D483" s="23" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="E483" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-62',11,'Ввод в работу КЛ Шлюз-2','КЛ Шлюз-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-62','8','Ввод в работу КЛ Шлюз-2','КЛ Шлюз-2'</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
@@ -15343,17 +15357,17 @@
         <v>926</v>
       </c>
       <c r="B484" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C484" s="22" t="s">
         <v>927</v>
       </c>
       <c r="D484" s="23" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="E484" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-63',11,'Вывод в ремонт КЛ Фильтровальная-1','КЛ Фильтровальная-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-63','8','Вывод в ремонт КЛ Фильтровальная-1','КЛ Фильтровальная-1'</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -15361,17 +15375,17 @@
         <v>928</v>
       </c>
       <c r="B485" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C485" s="22" t="s">
         <v>929</v>
       </c>
       <c r="D485" s="23" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="E485" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-64',11,'Ввод в работу КЛ Фильтровальная-1','КЛ Фильтровальная-1'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-64','8','Ввод в работу КЛ Фильтровальная-1','КЛ Фильтровальная-1'</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -15379,17 +15393,17 @@
         <v>930</v>
       </c>
       <c r="B486" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C486" s="22" t="s">
         <v>931</v>
       </c>
       <c r="D486" s="23" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="E486" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-65',11,'Вывод в ремонт КЛ Фильтровальная-2','КЛ Фильтровальная-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-65','8','Вывод в ремонт КЛ Фильтровальная-2','КЛ Фильтровальная-2'</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -15397,17 +15411,17 @@
         <v>932</v>
       </c>
       <c r="B487" s="7" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C487" s="22" t="s">
         <v>933</v>
       </c>
       <c r="D487" s="23" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="E487" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-66',11,'Ввод в работу КЛ Фильтровальная-2','КЛ Фильтровальная-2'</v>
+        <v>INSERT INTO TBPInfoTable (Number,Folder,Name,ObjectInfo) SELECT '8-66','8','Ввод в работу КЛ Фильтровальная-2','КЛ Фильтровальная-2'</v>
       </c>
     </row>
   </sheetData>

--- a/BlankJournal/Data/Копия ПЕРЕЧЕНЬ ТБП 23 09 15.xlsx
+++ b/BlankJournal/Data/Копия ПЕРЕЧЕНЬ ТБП 23 09 15.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\BlankJournal\BlankJournal\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="19320" windowHeight="11565" tabRatio="753" activeTab="13"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="19320" windowHeight="11505" tabRatio="753" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="титул" sheetId="13" r:id="rId1"/>
@@ -25,7 +20,8 @@
     <sheet name="7.1 АКА ВЛ 220" sheetId="17" r:id="rId11"/>
     <sheet name="7.2 АКА ВЛ 500" sheetId="20" r:id="rId12"/>
     <sheet name="8. КРУ 6кВ" sheetId="22" r:id="rId13"/>
-    <sheet name="Лист1" sheetId="24" r:id="rId14"/>
+    <sheet name="9. ЩПТ" sheetId="25" r:id="rId14"/>
+    <sheet name="Лист1" sheetId="24" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'1.ГА'!#REF!</definedName>
@@ -42,12 +38,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="12">'8. КРУ 6кВ'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.ОРУ110'!$A$1:$C$76</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="1209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="1273">
   <si>
     <t>Вывод передатчика АКА-16 кГц ВЛ-500 кВ Емелино.</t>
   </si>
@@ -3686,6 +3682,198 @@
   </si>
   <si>
     <t>7.2</t>
+  </si>
+  <si>
+    <t>9-01</t>
+  </si>
+  <si>
+    <t>Вывод в ремонт 1П</t>
+  </si>
+  <si>
+    <t>9-02</t>
+  </si>
+  <si>
+    <t>Ввод в работу 1П</t>
+  </si>
+  <si>
+    <t>9-03</t>
+  </si>
+  <si>
+    <t>Вывод в ремонт АБ-1</t>
+  </si>
+  <si>
+    <t>9-04</t>
+  </si>
+  <si>
+    <t>Ввод в работу АБ-1</t>
+  </si>
+  <si>
+    <t>9-05</t>
+  </si>
+  <si>
+    <t>Вывод из работы УЗП-1 и ввод в работу ВАЗП-1</t>
+  </si>
+  <si>
+    <t>9-06</t>
+  </si>
+  <si>
+    <t>Вывод из работы ВАЗП-1 и ввод в работу УЗП-1</t>
+  </si>
+  <si>
+    <t>9-07</t>
+  </si>
+  <si>
+    <t>Вывод 1 секции и  секционной панели щита 2П</t>
+  </si>
+  <si>
+    <t>9-08</t>
+  </si>
+  <si>
+    <t>Ввод 1 секции и секционной панели 2П</t>
+  </si>
+  <si>
+    <t>9-09</t>
+  </si>
+  <si>
+    <t>Вывод в ремонт 2 секции щита 2П</t>
+  </si>
+  <si>
+    <t>9-10</t>
+  </si>
+  <si>
+    <t>Ввод в работу 2 секции щита 2П</t>
+  </si>
+  <si>
+    <t>9-11</t>
+  </si>
+  <si>
+    <t>Вывод в ремонт вводной панели щита 2П</t>
+  </si>
+  <si>
+    <t>9-12</t>
+  </si>
+  <si>
+    <t>Ввод в работу вводной панели щита 2П</t>
+  </si>
+  <si>
+    <t>9-13</t>
+  </si>
+  <si>
+    <t>Вывод в ремонт АБ-2</t>
+  </si>
+  <si>
+    <t>9-14</t>
+  </si>
+  <si>
+    <t>Ввод в работу АБ-2</t>
+  </si>
+  <si>
+    <t>9-15</t>
+  </si>
+  <si>
+    <t>Вывод из работы УЗП-2 и ввод в работу ВАЗП-2</t>
+  </si>
+  <si>
+    <t>9-16</t>
+  </si>
+  <si>
+    <t>Вывод из работы ВАЗП-2 и ввод в работу УЗП-2</t>
+  </si>
+  <si>
+    <t>9-17</t>
+  </si>
+  <si>
+    <t>Вывод 1 секции и  секционной панели щита 3П</t>
+  </si>
+  <si>
+    <t>9-18</t>
+  </si>
+  <si>
+    <t>Ввод 1 секции и секционной панели щита 3П</t>
+  </si>
+  <si>
+    <t>9-19</t>
+  </si>
+  <si>
+    <t>Вывод 2 секции щита 3П</t>
+  </si>
+  <si>
+    <t>9-20</t>
+  </si>
+  <si>
+    <t>Ввод 2 секции щита 3П</t>
+  </si>
+  <si>
+    <t>9-21</t>
+  </si>
+  <si>
+    <t>Вывод в ремонт вводной панели щита 3П</t>
+  </si>
+  <si>
+    <t>9-22</t>
+  </si>
+  <si>
+    <t>Ввод в работу вводной панели щита 3П</t>
+  </si>
+  <si>
+    <t>9-23</t>
+  </si>
+  <si>
+    <t>Вывод в ремонт АБ-3</t>
+  </si>
+  <si>
+    <t>9-24</t>
+  </si>
+  <si>
+    <t>Ввод в работу АБ-3</t>
+  </si>
+  <si>
+    <t>9-25</t>
+  </si>
+  <si>
+    <t>Вывод из работы УЗП-3 и ввод в работу ВАЗП-3</t>
+  </si>
+  <si>
+    <t>9-26</t>
+  </si>
+  <si>
+    <t>Вывод из работы ВАЗП-3 и ввод в работу УЗП-3</t>
+  </si>
+  <si>
+    <t>9-27</t>
+  </si>
+  <si>
+    <t>Вывод в ремонт 4П</t>
+  </si>
+  <si>
+    <t>9-28</t>
+  </si>
+  <si>
+    <t>Ввод в работу 4П</t>
+  </si>
+  <si>
+    <t>9-29</t>
+  </si>
+  <si>
+    <t>Вывод в ремонт АБ-4</t>
+  </si>
+  <si>
+    <t>9-30</t>
+  </si>
+  <si>
+    <t>Ввод в работу АБ-4</t>
+  </si>
+  <si>
+    <t>9-31</t>
+  </si>
+  <si>
+    <t>Вывод из работы УЗП-4 и ввод в работу ВАЗП-4</t>
+  </si>
+  <si>
+    <t>9-32</t>
+  </si>
+  <si>
+    <t>Вывод из работы ВАЗП-4 и ввод в работу УЗП-4</t>
   </si>
 </sst>
 </file>
@@ -3951,7 +4139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3986,7 +4174,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5795,7 +5983,7 @@
   </sheetPr>
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C66" sqref="A1:C66"/>
     </sheetView>
   </sheetViews>
@@ -6635,7 +6823,7 @@
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;RСтраница &amp;P</oddHeader>
   </headerFooter>
@@ -6644,10 +6832,377 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F487"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F487"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="A1:C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B1">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F519"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A483" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E520" sqref="E520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16105,7 +16660,7 @@
         <v>1017</v>
       </c>
       <c r="F450" s="1" t="str">
-        <f t="shared" ref="F450:F487" si="7">CONCATENATE("INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT ",A450,",'",B450,"','",C450,"','",D450,"','",E450,"',1")</f>
+        <f t="shared" ref="F450:F513" si="7">CONCATENATE("INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT ",A450,",'",B450,"','",C450,"','",D450,"','",E450,"',1")</f>
         <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 450,'8-29','8','Вывод в ремонт трансформатора 29Т','29Т',1</v>
       </c>
     </row>
@@ -16884,6 +17439,582 @@
       <c r="F487" s="1" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 487,'8-66','8','Ввод в работу КЛ Фильтровальная-2','КЛ Фильтровальная-2',1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>492</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C488">
+        <v>9</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F488" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 492,'9-01','9','Вывод в ремонт 1П','',1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>493</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C489">
+        <v>9</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F489" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 493,'9-02','9','Ввод в работу 1П','',1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>494</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C490">
+        <v>9</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F490" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 494,'9-03','9','Вывод в ремонт АБ-1','',1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>495</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C491">
+        <v>9</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F491" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 495,'9-04','9','Ввод в работу АБ-1','',1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>496</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C492">
+        <v>9</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F492" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 496,'9-05','9','Вывод из работы УЗП-1 и ввод в работу ВАЗП-1','',1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
+        <v>497</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C493">
+        <v>9</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F493" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 497,'9-06','9','Вывод из работы ВАЗП-1 и ввод в работу УЗП-1','',1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
+        <v>498</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C494">
+        <v>9</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F494" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 498,'9-07','9','Вывод 1 секции и  секционной панели щита 2П','',1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
+        <v>499</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C495">
+        <v>9</v>
+      </c>
+      <c r="D495" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F495" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 499,'9-08','9','Ввод 1 секции и секционной панели 2П','',1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
+        <v>500</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C496">
+        <v>9</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F496" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 500,'9-09','9','Вывод в ремонт 2 секции щита 2П','',1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
+        <v>501</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C497">
+        <v>9</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F497" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 501,'9-10','9','Ввод в работу 2 секции щита 2П','',1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
+        <v>502</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C498">
+        <v>9</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F498" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 502,'9-11','9','Вывод в ремонт вводной панели щита 2П','',1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
+        <v>503</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C499">
+        <v>9</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F499" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 503,'9-12','9','Ввод в работу вводной панели щита 2П','',1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
+        <v>504</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C500">
+        <v>9</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F500" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 504,'9-13','9','Вывод в ремонт АБ-2','',1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
+        <v>505</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C501">
+        <v>9</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F501" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 505,'9-14','9','Ввод в работу АБ-2','',1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
+        <v>506</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C502">
+        <v>9</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F502" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 506,'9-15','9','Вывод из работы УЗП-2 и ввод в работу ВАЗП-2','',1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
+        <v>507</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C503">
+        <v>9</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F503" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 507,'9-16','9','Вывод из работы ВАЗП-2 и ввод в работу УЗП-2','',1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
+        <v>508</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C504">
+        <v>9</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F504" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 508,'9-17','9','Вывод 1 секции и  секционной панели щита 3П','',1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
+        <v>509</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C505">
+        <v>9</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F505" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 509,'9-18','9','Ввод 1 секции и секционной панели щита 3П','',1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
+        <v>510</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C506">
+        <v>9</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F506" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 510,'9-19','9','Вывод 2 секции щита 3П','',1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
+        <v>511</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C507">
+        <v>9</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F507" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 511,'9-20','9','Ввод 2 секции щита 3П','',1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
+        <v>512</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C508">
+        <v>9</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F508" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 512,'9-21','9','Вывод в ремонт вводной панели щита 3П','',1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
+        <v>513</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C509">
+        <v>9</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F509" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 513,'9-22','9','Ввод в работу вводной панели щита 3П','',1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
+        <v>514</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C510">
+        <v>9</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F510" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 514,'9-23','9','Вывод в ремонт АБ-3','',1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
+        <v>515</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C511">
+        <v>9</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F511" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 515,'9-24','9','Ввод в работу АБ-3','',1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
+        <v>516</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C512">
+        <v>9</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F512" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 516,'9-25','9','Вывод из работы УЗП-3 и ввод в работу ВАЗП-3','',1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
+        <v>517</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C513">
+        <v>9</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F513" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 517,'9-26','9','Вывод из работы ВАЗП-3 и ввод в работу УЗП-3','',1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
+        <v>518</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C514">
+        <v>9</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F514" s="1" t="str">
+        <f t="shared" ref="F514:F519" si="8">CONCATENATE("INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT ",A514,",'",B514,"','",C514,"','",D514,"','",E514,"',1")</f>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 518,'9-27','9','Вывод в ремонт 4П','',1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
+        <v>519</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C515">
+        <v>9</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F515" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 519,'9-28','9','Ввод в работу 4П','',1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
+        <v>520</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C516">
+        <v>9</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F516" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 520,'9-29','9','Вывод в ремонт АБ-4','',1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
+        <v>521</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C517">
+        <v>9</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F517" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 521,'9-30','9','Ввод в работу АБ-4','',1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
+        <v>522</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C518">
+        <v>9</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F518" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 522,'9-31','9','Вывод из работы УЗП-4 и ввод в работу ВАЗП-4','',1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
+        <v>523</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C519">
+        <v>9</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F519" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO TBPInfoTable (ID,Number,Folder,Name,ObjectInfo,isActive) SELECT 523,'9-32','9','Вывод из работы ВАЗП-4 и ввод в работу УЗП-4','',1</v>
       </c>
     </row>
   </sheetData>
